--- a/Документы/Начальные данные.xlsx
+++ b/Документы/Начальные данные.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317DC28-FA63-4D34-B94E-065B484161BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718103C-5818-473E-8851-D5528B574AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1572">
   <si>
     <t>Наименование</t>
   </si>
@@ -2905,18 +2905,1868 @@
   </si>
   <si>
     <t>2200.00</t>
+  </si>
+  <si>
+    <t>430.25</t>
+  </si>
+  <si>
+    <t>20250429-001</t>
+  </si>
+  <si>
+    <t>180.70</t>
+  </si>
+  <si>
+    <t>20250206-001</t>
+  </si>
+  <si>
+    <t>565.95</t>
+  </si>
+  <si>
+    <t>20240913-001</t>
+  </si>
+  <si>
+    <t>220.40</t>
+  </si>
+  <si>
+    <t>20240620-001</t>
+  </si>
+  <si>
+    <t>670.85</t>
+  </si>
+  <si>
+    <t>20250527-002</t>
+  </si>
+  <si>
+    <t>425.20</t>
+  </si>
+  <si>
+    <t>20250504-002</t>
+  </si>
+  <si>
+    <t>195.65</t>
+  </si>
+  <si>
+    <t>20250411-001</t>
+  </si>
+  <si>
+    <t>580.15</t>
+  </si>
+  <si>
+    <t>20250318-002</t>
+  </si>
+  <si>
+    <t>235.50</t>
+  </si>
+  <si>
+    <t>20250125-001</t>
+  </si>
+  <si>
+    <t>760.35</t>
+  </si>
+  <si>
+    <t>20240702-001</t>
+  </si>
+  <si>
+    <t>415.80</t>
+  </si>
+  <si>
+    <t>20240609-002</t>
+  </si>
+  <si>
+    <t>20250516-002</t>
+  </si>
+  <si>
+    <t>545.70</t>
+  </si>
+  <si>
+    <t>20250423-001</t>
+  </si>
+  <si>
+    <t>210.05</t>
+  </si>
+  <si>
+    <t>20250330-002</t>
+  </si>
+  <si>
+    <t>675.60</t>
+  </si>
+  <si>
+    <t>20250107-001</t>
+  </si>
+  <si>
+    <t>430.95</t>
+  </si>
+  <si>
+    <t>20240614-002</t>
+  </si>
+  <si>
+    <t>195.40</t>
+  </si>
+  <si>
+    <t>20250521-002</t>
+  </si>
+  <si>
+    <t>560.55</t>
+  </si>
+  <si>
+    <t>20250428-001</t>
+  </si>
+  <si>
+    <t>225.90</t>
+  </si>
+  <si>
+    <t>20241105-002</t>
+  </si>
+  <si>
+    <t>780.25</t>
+  </si>
+  <si>
+    <t>20241012-001</t>
+  </si>
+  <si>
+    <t>435.80</t>
+  </si>
+  <si>
+    <t>20240619-001</t>
+  </si>
+  <si>
+    <t>170.35</t>
+  </si>
+  <si>
+    <t>20250526-001</t>
+  </si>
+  <si>
+    <t>585.70</t>
+  </si>
+  <si>
+    <t>20250503-001</t>
+  </si>
+  <si>
+    <t>240.25</t>
+  </si>
+  <si>
+    <t>20250410-001</t>
+  </si>
+  <si>
+    <t>755.90</t>
+  </si>
+  <si>
+    <t>20250317-002</t>
+  </si>
+  <si>
+    <t>420.45</t>
+  </si>
+  <si>
+    <t>20250224-001</t>
+  </si>
+  <si>
+    <t>195.80</t>
+  </si>
+  <si>
+    <t>20240701-001</t>
+  </si>
+  <si>
+    <t>565.15</t>
+  </si>
+  <si>
+    <t>20240608-001</t>
+  </si>
+  <si>
+    <t>220.60</t>
+  </si>
+  <si>
+    <t>20250515-001</t>
+  </si>
+  <si>
+    <t>675.05</t>
+  </si>
+  <si>
+    <t>20250422-002</t>
+  </si>
+  <si>
+    <t>430.50</t>
+  </si>
+  <si>
+    <t>20250329-003</t>
+  </si>
+  <si>
+    <t>185.95</t>
+  </si>
+  <si>
+    <t>20250106-001</t>
+  </si>
+  <si>
+    <t>520.40</t>
+  </si>
+  <si>
+    <t>20240613-002</t>
+  </si>
+  <si>
+    <t>285.35</t>
+  </si>
+  <si>
+    <t>20250520-001</t>
+  </si>
+  <si>
+    <t>750.80</t>
+  </si>
+  <si>
+    <t>20250427-002</t>
+  </si>
+  <si>
+    <t>415.25</t>
+  </si>
+  <si>
+    <t>20241004-001</t>
+  </si>
+  <si>
+    <t>170.70</t>
+  </si>
+  <si>
+    <t>20240911-001</t>
+  </si>
+  <si>
+    <t>505.15</t>
+  </si>
+  <si>
+    <t>20240618-002</t>
+  </si>
+  <si>
+    <t>250.60</t>
+  </si>
+  <si>
+    <t>20250525-003</t>
+  </si>
+  <si>
+    <t>785.45</t>
+  </si>
+  <si>
+    <t>20250402-002</t>
+  </si>
+  <si>
+    <t>440.90</t>
+  </si>
+  <si>
+    <t>20250309-002</t>
+  </si>
+  <si>
+    <t>205.35</t>
+  </si>
+  <si>
+    <t>20250216-001</t>
+  </si>
+  <si>
+    <t>575.80</t>
+  </si>
+  <si>
+    <t>20241223-002</t>
+  </si>
+  <si>
+    <t>230.25</t>
+  </si>
+  <si>
+    <t>20250530-004</t>
+  </si>
+  <si>
+    <t>665.50</t>
+  </si>
+  <si>
+    <t>20250507-004</t>
+  </si>
+  <si>
+    <t>420.75</t>
+  </si>
+  <si>
+    <t>20250414-003</t>
+  </si>
+  <si>
+    <t>175.20</t>
+  </si>
+  <si>
+    <t>20250321-003</t>
+  </si>
+  <si>
+    <t>530.65</t>
+  </si>
+  <si>
+    <t>20250228-005</t>
+  </si>
+  <si>
+    <t>190.95</t>
+  </si>
+  <si>
+    <t>20250105-002</t>
+  </si>
+  <si>
+    <t>545.40</t>
+  </si>
+  <si>
+    <t>20240612-001</t>
+  </si>
+  <si>
+    <t>210.85</t>
+  </si>
+  <si>
+    <t>20250519-003</t>
+  </si>
+  <si>
+    <t>760.30</t>
+  </si>
+  <si>
+    <t>20250426-004</t>
+  </si>
+  <si>
+    <t>425.75</t>
+  </si>
+  <si>
+    <t>20241103-002</t>
+  </si>
+  <si>
+    <t>180.60</t>
+  </si>
+  <si>
+    <t>20241010-003</t>
+  </si>
+  <si>
+    <t>585.05</t>
+  </si>
+  <si>
+    <t>20240617-003</t>
+  </si>
+  <si>
+    <t>240.50</t>
+  </si>
+  <si>
+    <t>20250524-002</t>
+  </si>
+  <si>
+    <t>775.85</t>
+  </si>
+  <si>
+    <t>20250401-001</t>
+  </si>
+  <si>
+    <t>430.40</t>
+  </si>
+  <si>
+    <t>20250308-001</t>
+  </si>
+  <si>
+    <t>195.15</t>
+  </si>
+  <si>
+    <t>20250115-002</t>
+  </si>
+  <si>
+    <t>560.70</t>
+  </si>
+  <si>
+    <t>20241222-001</t>
+  </si>
+  <si>
+    <t>225.35</t>
+  </si>
+  <si>
+    <t>20250529-001</t>
+  </si>
+  <si>
+    <t>680.90</t>
+  </si>
+  <si>
+    <t>20250506-002</t>
+  </si>
+  <si>
+    <t>435.25</t>
+  </si>
+  <si>
+    <t>20250413-003</t>
+  </si>
+  <si>
+    <t>170.80</t>
+  </si>
+  <si>
+    <t>20250320-001</t>
+  </si>
+  <si>
+    <t>505.55</t>
+  </si>
+  <si>
+    <t>20250127-002</t>
+  </si>
+  <si>
+    <t>250.20</t>
+  </si>
+  <si>
+    <t>20240704-001</t>
+  </si>
+  <si>
+    <t>765.95</t>
+  </si>
+  <si>
+    <t>20240611-001</t>
+  </si>
+  <si>
+    <t>420.30</t>
+  </si>
+  <si>
+    <t>20250518-002</t>
+  </si>
+  <si>
+    <t>20250425-002</t>
+  </si>
+  <si>
+    <t>575.10</t>
+  </si>
+  <si>
+    <t>20250302-001</t>
+  </si>
+  <si>
+    <t>230.45</t>
+  </si>
+  <si>
+    <t>20250209-001</t>
+  </si>
+  <si>
+    <t>785.80</t>
+  </si>
+  <si>
+    <t>20240916-001</t>
+  </si>
+  <si>
+    <t>440.35</t>
+  </si>
+  <si>
+    <t>20240623-001</t>
+  </si>
+  <si>
+    <t>165.90</t>
+  </si>
+  <si>
+    <t>20250530-003</t>
+  </si>
+  <si>
+    <t>610.25</t>
+  </si>
+  <si>
+    <t>20250507-003</t>
+  </si>
+  <si>
+    <t>275.60</t>
+  </si>
+  <si>
+    <t>20250414-002</t>
+  </si>
+  <si>
+    <t>525.15</t>
+  </si>
+  <si>
+    <t>20250321-002</t>
+  </si>
+  <si>
+    <t>180.50</t>
+  </si>
+  <si>
+    <t>20250228-004</t>
+  </si>
+  <si>
+    <t>590.85</t>
+  </si>
+  <si>
+    <t>20250105-001</t>
+  </si>
+  <si>
+    <t>245.40</t>
+  </si>
+  <si>
+    <t>20241212-001</t>
+  </si>
+  <si>
+    <t>20250519-002</t>
+  </si>
+  <si>
+    <t>435.70</t>
+  </si>
+  <si>
+    <t>20250426-003</t>
+  </si>
+  <si>
+    <t>20241103-001</t>
+  </si>
+  <si>
+    <t>555.30</t>
+  </si>
+  <si>
+    <t>20241010-002</t>
+  </si>
+  <si>
+    <t>210.65</t>
+  </si>
+  <si>
+    <t>20240617-002</t>
+  </si>
+  <si>
+    <t>760.20</t>
+  </si>
+  <si>
+    <t>20250524-001</t>
+  </si>
+  <si>
+    <t>425.45</t>
+  </si>
+  <si>
+    <t>20250501-001</t>
+  </si>
+  <si>
+    <t>175.80</t>
+  </si>
+  <si>
+    <t>20250408-003</t>
+  </si>
+  <si>
+    <t>610.35</t>
+  </si>
+  <si>
+    <t>20250315-002</t>
+  </si>
+  <si>
+    <t>265.60</t>
+  </si>
+  <si>
+    <t>20250222-001</t>
+  </si>
+  <si>
+    <t>520.05</t>
+  </si>
+  <si>
+    <t>20250129-002</t>
+  </si>
+  <si>
+    <t>195.50</t>
+  </si>
+  <si>
+    <t>20241206-002</t>
+  </si>
+  <si>
+    <t>585.95</t>
+  </si>
+  <si>
+    <t>20250513-001</t>
+  </si>
+  <si>
+    <t>240.40</t>
+  </si>
+  <si>
+    <t>20250420-001</t>
+  </si>
+  <si>
+    <t>775.25</t>
+  </si>
+  <si>
+    <t>20250327-001</t>
+  </si>
+  <si>
+    <t>430.80</t>
+  </si>
+  <si>
+    <t>20250204-002</t>
+  </si>
+  <si>
+    <t>185.15</t>
+  </si>
+  <si>
+    <t>20241111-002</t>
+  </si>
+  <si>
+    <t>540.70</t>
+  </si>
+  <si>
+    <t>20240618-001</t>
+  </si>
+  <si>
+    <t>290.25</t>
+  </si>
+  <si>
+    <t>20250525-002</t>
+  </si>
+  <si>
+    <t>755.60</t>
+  </si>
+  <si>
+    <t>20250402-001</t>
+  </si>
+  <si>
+    <t>415.35</t>
+  </si>
+  <si>
+    <t>20250309-001</t>
+  </si>
+  <si>
+    <t>170.90</t>
+  </si>
+  <si>
+    <t>20250116-001</t>
+  </si>
+  <si>
+    <t>620.45</t>
+  </si>
+  <si>
+    <t>20241223-001</t>
+  </si>
+  <si>
+    <t>285.80</t>
+  </si>
+  <si>
+    <t>20250530-002</t>
+  </si>
+  <si>
+    <t>530.15</t>
+  </si>
+  <si>
+    <t>20250507-002</t>
+  </si>
+  <si>
+    <t>195.70</t>
+  </si>
+  <si>
+    <t>20250414-001</t>
+  </si>
+  <si>
+    <t>580.25</t>
+  </si>
+  <si>
+    <t>20250321-001</t>
+  </si>
+  <si>
+    <t>20250228-003</t>
+  </si>
+  <si>
+    <t>760.95</t>
+  </si>
+  <si>
+    <t>20241005-002</t>
+  </si>
+  <si>
+    <t>425.40</t>
+  </si>
+  <si>
+    <t>20250512-002</t>
+  </si>
+  <si>
+    <t>180.85</t>
+  </si>
+  <si>
+    <t>20250119-001</t>
+  </si>
+  <si>
+    <t>515.30</t>
+  </si>
+  <si>
+    <t>20250426-002</t>
+  </si>
+  <si>
+    <t>270.65</t>
+  </si>
+  <si>
+    <t>20240803-001</t>
+  </si>
+  <si>
+    <t>785.20</t>
+  </si>
+  <si>
+    <t>20250310-001</t>
+  </si>
+  <si>
+    <t>440.55</t>
+  </si>
+  <si>
+    <t>20250517-001</t>
+  </si>
+  <si>
+    <t>205.90</t>
+  </si>
+  <si>
+    <t>20240624-002</t>
+  </si>
+  <si>
+    <t>670.25</t>
+  </si>
+  <si>
+    <t>20250101-001</t>
+  </si>
+  <si>
+    <t>320.80</t>
+  </si>
+  <si>
+    <t>20250408-002</t>
+  </si>
+  <si>
+    <t>575.15</t>
+  </si>
+  <si>
+    <t>20250215-001</t>
+  </si>
+  <si>
+    <t>240.60</t>
+  </si>
+  <si>
+    <t>20250522-001</t>
+  </si>
+  <si>
+    <t>825.45</t>
+  </si>
+  <si>
+    <t>20250329-002</t>
+  </si>
+  <si>
+    <t>480.90</t>
+  </si>
+  <si>
+    <t>20241206-001</t>
+  </si>
+  <si>
+    <t>185.35</t>
+  </si>
+  <si>
+    <t>20250413-002</t>
+  </si>
+  <si>
+    <t>630.70</t>
+  </si>
+  <si>
+    <t>20250120-002</t>
+  </si>
+  <si>
+    <t>295.25</t>
+  </si>
+  <si>
+    <t>20250527-001</t>
+  </si>
+  <si>
+    <t>745.80</t>
+  </si>
+  <si>
+    <t>20250204-001</t>
+  </si>
+  <si>
+    <t>410.45</t>
+  </si>
+  <si>
+    <t>20241111-001</t>
+  </si>
+  <si>
+    <t>175.90</t>
+  </si>
+  <si>
+    <t>20250318-001</t>
+  </si>
+  <si>
+    <t>520.55</t>
+  </si>
+  <si>
+    <t>20250425-001</t>
+  </si>
+  <si>
+    <t>265.20</t>
+  </si>
+  <si>
+    <t>20240902-001</t>
+  </si>
+  <si>
+    <t>780.85</t>
+  </si>
+  <si>
+    <t>20240609-001</t>
+  </si>
+  <si>
+    <t>435.40</t>
+  </si>
+  <si>
+    <t>20250516-001</t>
+  </si>
+  <si>
+    <t>190.75</t>
+  </si>
+  <si>
+    <t>20250223-002</t>
+  </si>
+  <si>
+    <t>665.30</t>
+  </si>
+  <si>
+    <t>20250430-001</t>
+  </si>
+  <si>
+    <t>320.65</t>
+  </si>
+  <si>
+    <t>20250307-001</t>
+  </si>
+  <si>
+    <t>570.90</t>
+  </si>
+  <si>
+    <t>20241214-001</t>
+  </si>
+  <si>
+    <t>235.15</t>
+  </si>
+  <si>
+    <t>20250521-001</t>
+  </si>
+  <si>
+    <t>785.50</t>
+  </si>
+  <si>
+    <t>20250128-001</t>
+  </si>
+  <si>
+    <t>420.25</t>
+  </si>
+  <si>
+    <t>20241005-001</t>
+  </si>
+  <si>
+    <t>20250511-001</t>
+  </si>
+  <si>
+    <t>610.95</t>
+  </si>
+  <si>
+    <t>20250418-001</t>
+  </si>
+  <si>
+    <t>280.40</t>
+  </si>
+  <si>
+    <t>20250325-001</t>
+  </si>
+  <si>
+    <t>540.65</t>
+  </si>
+  <si>
+    <t>20250202-001</t>
+  </si>
+  <si>
+    <t>195.20</t>
+  </si>
+  <si>
+    <t>20240909-001</t>
+  </si>
+  <si>
+    <t>835.85</t>
+  </si>
+  <si>
+    <t>20240614-001</t>
+  </si>
+  <si>
+    <t>490.30</t>
+  </si>
+  <si>
+    <t>20250427-001</t>
+  </si>
+  <si>
+    <t>145.75</t>
+  </si>
+  <si>
+    <t>20250504-001</t>
+  </si>
+  <si>
+    <t>760.25</t>
+  </si>
+  <si>
+    <t>20250311-001</t>
+  </si>
+  <si>
+    <t>325.60</t>
+  </si>
+  <si>
+    <t>20250218-001</t>
+  </si>
+  <si>
+    <t>570.45</t>
+  </si>
+  <si>
+    <t>20250120-001</t>
+  </si>
+  <si>
+    <t>210.90</t>
+  </si>
+  <si>
+    <t>20241207-001</t>
+  </si>
+  <si>
+    <t>625.15</t>
+  </si>
+  <si>
+    <t>20250424-001</t>
+  </si>
+  <si>
+    <t>380.80</t>
+  </si>
+  <si>
+    <t>20250530-001</t>
+  </si>
+  <si>
+    <t>165.35</t>
+  </si>
+  <si>
+    <t>20240613-001</t>
+  </si>
+  <si>
+    <t>895.70</t>
+  </si>
+  <si>
+    <t>20250322-001</t>
+  </si>
+  <si>
+    <t>510.25</t>
+  </si>
+  <si>
+    <t>20250409-001</t>
+  </si>
+  <si>
+    <t>275.40</t>
+  </si>
+  <si>
+    <t>20250115-001</t>
+  </si>
+  <si>
+    <t>740.95</t>
+  </si>
+  <si>
+    <t>20250228-002</t>
+  </si>
+  <si>
+    <t>450.30</t>
+  </si>
+  <si>
+    <t>20241105-001</t>
+  </si>
+  <si>
+    <t>185.65</t>
+  </si>
+  <si>
+    <t>20250512-001</t>
+  </si>
+  <si>
+    <t>820.10</t>
+  </si>
+  <si>
+    <t>20250319-001</t>
+  </si>
+  <si>
+    <t>315.85</t>
+  </si>
+  <si>
+    <t>20250426-001</t>
+  </si>
+  <si>
+    <t>670.20</t>
+  </si>
+  <si>
+    <t>20240901-001</t>
+  </si>
+  <si>
+    <t>230.55</t>
+  </si>
+  <si>
+    <t>20241010-001</t>
+  </si>
+  <si>
+    <t>590.75</t>
+  </si>
+  <si>
+    <t>20240617-001</t>
+  </si>
+  <si>
+    <t>145.90</t>
+  </si>
+  <si>
+    <t>20250223-001</t>
+  </si>
+  <si>
+    <t>705.15</t>
+  </si>
+  <si>
+    <t>20250104-001</t>
+  </si>
+  <si>
+    <t>260.40</t>
+  </si>
+  <si>
+    <t>20250514-001</t>
+  </si>
+  <si>
+    <t>480.65</t>
+  </si>
+  <si>
+    <t>20250329-001</t>
+  </si>
+  <si>
+    <t>190.80</t>
+  </si>
+  <si>
+    <t>20250506-001</t>
+  </si>
+  <si>
+    <t>610.30</t>
+  </si>
+  <si>
+    <t>20241121-001</t>
+  </si>
+  <si>
+    <t>365.25</t>
+  </si>
+  <si>
+    <t>20250408-001</t>
+  </si>
+  <si>
+    <t>875.50</t>
+  </si>
+  <si>
+    <t>20250127-001</t>
+  </si>
+  <si>
+    <t>210.95</t>
+  </si>
+  <si>
+    <t>20250315-001</t>
+  </si>
+  <si>
+    <t>540.85</t>
+  </si>
+  <si>
+    <t>20241202-001</t>
+  </si>
+  <si>
+    <t>325.10</t>
+  </si>
+  <si>
+    <t>20250518-001</t>
+  </si>
+  <si>
+    <t>795.20</t>
+  </si>
+  <si>
+    <t>20240624-001</t>
+  </si>
+  <si>
+    <t>430.70</t>
+  </si>
+  <si>
+    <t>20250207-001</t>
+  </si>
+  <si>
+    <t>175.60</t>
+  </si>
+  <si>
+    <t>20250413-001</t>
+  </si>
+  <si>
+    <t>680.35</t>
+  </si>
+  <si>
+    <t>20250330-001</t>
+  </si>
+  <si>
+    <t>245.90</t>
+  </si>
+  <si>
+    <t>20250109-001</t>
+  </si>
+  <si>
+    <t>920.45</t>
+  </si>
+  <si>
+    <t>20250525-001</t>
+  </si>
+  <si>
+    <t>560.80</t>
+  </si>
+  <si>
+    <t>20250228-001</t>
+  </si>
+  <si>
+    <t>380.25</t>
+  </si>
+  <si>
+    <t>20250403-001</t>
+  </si>
+  <si>
+    <t>20250519-001</t>
+  </si>
+  <si>
+    <t>840.15</t>
+  </si>
+  <si>
+    <t>20241211-001</t>
+  </si>
+  <si>
+    <t>725.30</t>
+  </si>
+  <si>
+    <t>20250605-001</t>
+  </si>
+  <si>
+    <t>150.60</t>
+  </si>
+  <si>
+    <t>20250317-001</t>
+  </si>
+  <si>
+    <t>290.75</t>
+  </si>
+  <si>
+    <t>20250422-001</t>
+  </si>
+  <si>
+    <t>635.40</t>
+  </si>
+  <si>
+    <t>20250129-001</t>
+  </si>
+  <si>
+    <t>420.90</t>
+  </si>
+  <si>
+    <t>20250214-001</t>
+  </si>
+  <si>
+    <t>185.25</t>
+  </si>
+  <si>
+    <t>20250507-001</t>
+  </si>
+  <si>
+    <t>315.80</t>
+  </si>
+  <si>
+    <t>20250312-001</t>
+  </si>
+  <si>
+    <t>345.75</t>
+  </si>
+  <si>
+    <t>20240903-127</t>
+  </si>
+  <si>
+    <t>8500.50</t>
+  </si>
+  <si>
+    <t>20240902-126</t>
+  </si>
+  <si>
+    <t>585.90</t>
+  </si>
+  <si>
+    <t>20240901-125</t>
+  </si>
+  <si>
+    <t>265.30</t>
+  </si>
+  <si>
+    <t>20240831-124</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>20240830-123</t>
+  </si>
+  <si>
+    <t>4250.80</t>
+  </si>
+  <si>
+    <t>20240829-122</t>
+  </si>
+  <si>
+    <t>175.45</t>
+  </si>
+  <si>
+    <t>20240828-121</t>
+  </si>
+  <si>
+    <t>9400.75</t>
+  </si>
+  <si>
+    <t>20240827-120</t>
+  </si>
+  <si>
+    <t>655.25</t>
+  </si>
+  <si>
+    <t>20240826-119</t>
+  </si>
+  <si>
+    <t>315.90</t>
+  </si>
+  <si>
+    <t>20240825-118</t>
+  </si>
+  <si>
+    <t>8800.25</t>
+  </si>
+  <si>
+    <t>20240824-117</t>
+  </si>
+  <si>
+    <t>2950.40</t>
+  </si>
+  <si>
+    <t>20240823-116</t>
+  </si>
+  <si>
+    <t>225.60</t>
+  </si>
+  <si>
+    <t>20240822-115</t>
+  </si>
+  <si>
+    <t>7100.80</t>
+  </si>
+  <si>
+    <t>20240821-114</t>
+  </si>
+  <si>
+    <t>545.75</t>
+  </si>
+  <si>
+    <t>20240820-113</t>
+  </si>
+  <si>
+    <t>395.20</t>
+  </si>
+  <si>
+    <t>20240819-112</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>20240818-111</t>
+  </si>
+  <si>
+    <t>3650.25</t>
+  </si>
+  <si>
+    <t>20240817-110</t>
+  </si>
+  <si>
+    <t>145.80</t>
+  </si>
+  <si>
+    <t>20240816-109</t>
+  </si>
+  <si>
+    <t>8300.50</t>
+  </si>
+  <si>
+    <t>20240815-108</t>
+  </si>
+  <si>
+    <t>725.45</t>
+  </si>
+  <si>
+    <t>20240814-107</t>
+  </si>
+  <si>
+    <t>280.75</t>
+  </si>
+  <si>
+    <t>20240813-106</t>
+  </si>
+  <si>
+    <t>6800.25</t>
+  </si>
+  <si>
+    <t>20240812-105</t>
+  </si>
+  <si>
+    <t>5150.60</t>
+  </si>
+  <si>
+    <t>20240811-104</t>
+  </si>
+  <si>
+    <t>195.30</t>
+  </si>
+  <si>
+    <t>20240810-103</t>
+  </si>
+  <si>
+    <t>9200.75</t>
+  </si>
+  <si>
+    <t>20240809-102</t>
+  </si>
+  <si>
+    <t>20240808-101</t>
+  </si>
+  <si>
+    <t>355.40</t>
+  </si>
+  <si>
+    <t>20240807-100</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>20240806-099</t>
+  </si>
+  <si>
+    <t>2750.90</t>
+  </si>
+  <si>
+    <t>20240805-098</t>
+  </si>
+  <si>
+    <t>165.70</t>
+  </si>
+  <si>
+    <t>20240804-097</t>
+  </si>
+  <si>
+    <t>8900.35</t>
+  </si>
+  <si>
+    <t>20240803-096</t>
+  </si>
+  <si>
+    <t>495.80</t>
+  </si>
+  <si>
+    <t>20240802-095</t>
+  </si>
+  <si>
+    <t>305.25</t>
+  </si>
+  <si>
+    <t>20240801-094</t>
+  </si>
+  <si>
+    <t>6700.50</t>
+  </si>
+  <si>
+    <t>20240731-093</t>
+  </si>
+  <si>
+    <t>3250.75</t>
+  </si>
+  <si>
+    <t>20240730-092</t>
+  </si>
+  <si>
+    <t>245.60</t>
+  </si>
+  <si>
+    <t>20240729-091</t>
+  </si>
+  <si>
+    <t>9400.00</t>
+  </si>
+  <si>
+    <t>20240728-090</t>
+  </si>
+  <si>
+    <t>675.25</t>
+  </si>
+  <si>
+    <t>20240727-089</t>
+  </si>
+  <si>
+    <t>185.90</t>
+  </si>
+  <si>
+    <t>20240726-088</t>
+  </si>
+  <si>
+    <t>8600.75</t>
+  </si>
+  <si>
+    <t>20240725-087</t>
+  </si>
+  <si>
+    <t>3850.40</t>
+  </si>
+  <si>
+    <t>20240724-086</t>
+  </si>
+  <si>
+    <t>330.50</t>
+  </si>
+  <si>
+    <t>20240723-085</t>
+  </si>
+  <si>
+    <t>7300.25</t>
+  </si>
+  <si>
+    <t>20240722-084</t>
+  </si>
+  <si>
+    <t>585.75</t>
+  </si>
+  <si>
+    <t>20240721-083</t>
+  </si>
+  <si>
+    <t>215.85</t>
+  </si>
+  <si>
+    <t>20240720-082</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>20240719-081</t>
+  </si>
+  <si>
+    <t>4550.90</t>
+  </si>
+  <si>
+    <t>20240718-080</t>
+  </si>
+  <si>
+    <t>375.30</t>
+  </si>
+  <si>
+    <t>20240717-079</t>
+  </si>
+  <si>
+    <t>7100.75</t>
+  </si>
+  <si>
+    <t>20240716-078</t>
+  </si>
+  <si>
+    <t>2950.60</t>
+  </si>
+  <si>
+    <t>20240715-077</t>
+  </si>
+  <si>
+    <t>135.20</t>
+  </si>
+  <si>
+    <t>20240714-076</t>
+  </si>
+  <si>
+    <t>8500.25</t>
+  </si>
+  <si>
+    <t>20240713-075</t>
+  </si>
+  <si>
+    <t>635.45</t>
+  </si>
+  <si>
+    <t>20240712-074</t>
+  </si>
+  <si>
+    <t>20240711-073</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>20240710-072</t>
+  </si>
+  <si>
+    <t>3750.80</t>
+  </si>
+  <si>
+    <t>20240709-071</t>
+  </si>
+  <si>
+    <t>175.40</t>
+  </si>
+  <si>
+    <t>20240708-070</t>
+  </si>
+  <si>
+    <t>9300.50</t>
+  </si>
+  <si>
+    <t>20240707-069</t>
+  </si>
+  <si>
+    <t>5250.25</t>
+  </si>
+  <si>
+    <t>20240706-068</t>
+  </si>
+  <si>
+    <t>255.60</t>
+  </si>
+  <si>
+    <t>20240705-067</t>
+  </si>
+  <si>
+    <t>6900.75</t>
+  </si>
+  <si>
+    <t>20240704-066</t>
+  </si>
+  <si>
+    <t>415.90</t>
+  </si>
+  <si>
+    <t>20240703-065</t>
+  </si>
+  <si>
+    <t>20240702-064</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>20240701-063</t>
+  </si>
+  <si>
+    <t>2750.40</t>
+  </si>
+  <si>
+    <t>20240630-062</t>
+  </si>
+  <si>
+    <t>320.25</t>
+  </si>
+  <si>
+    <t>20240629-061</t>
+  </si>
+  <si>
+    <t>9600.80</t>
+  </si>
+  <si>
+    <t>20240628-060</t>
+  </si>
+  <si>
+    <t>485.75</t>
+  </si>
+  <si>
+    <t>20240627-059</t>
+  </si>
+  <si>
+    <t>145.50</t>
+  </si>
+  <si>
+    <t>20240626-058</t>
+  </si>
+  <si>
+    <t>7500.25</t>
+  </si>
+  <si>
+    <t>20240625-057</t>
+  </si>
+  <si>
+    <t>3350.60</t>
+  </si>
+  <si>
+    <t>20240624-056</t>
+  </si>
+  <si>
+    <t>365.90</t>
+  </si>
+  <si>
+    <t>20240623-055</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>20240622-054</t>
+  </si>
+  <si>
+    <t>575.25</t>
+  </si>
+  <si>
+    <t>20240621-053</t>
+  </si>
+  <si>
+    <t>205.75</t>
+  </si>
+  <si>
+    <t>20240620-052</t>
+  </si>
+  <si>
+    <t>6400.50</t>
+  </si>
+  <si>
+    <t>20240619-051</t>
+  </si>
+  <si>
+    <t>4250.35</t>
+  </si>
+  <si>
+    <t>20240618-050</t>
+  </si>
+  <si>
+    <t>270.40</t>
+  </si>
+  <si>
+    <t>20240617-049</t>
+  </si>
+  <si>
+    <t>20240616-048</t>
+  </si>
+  <si>
+    <t>20240615-047</t>
+  </si>
+  <si>
+    <t>155.25</t>
+  </si>
+  <si>
+    <t>20240614-046</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>20240613-045</t>
+  </si>
+  <si>
+    <t>4950.80</t>
+  </si>
+  <si>
+    <t>20240612-044</t>
+  </si>
+  <si>
+    <t>340.60</t>
+  </si>
+  <si>
+    <t>20240611-043</t>
+  </si>
+  <si>
+    <t>20240610-042</t>
+  </si>
+  <si>
+    <t>2350.20</t>
+  </si>
+  <si>
+    <t>20240609-041</t>
+  </si>
+  <si>
+    <t>180.30</t>
+  </si>
+  <si>
+    <t>20240608-040</t>
+  </si>
+  <si>
+    <t>6800.50</t>
+  </si>
+  <si>
+    <t>20240607-039</t>
+  </si>
+  <si>
+    <t>5250.75</t>
+  </si>
+  <si>
+    <t>20240606-038</t>
+  </si>
+  <si>
+    <t>295.45</t>
+  </si>
+  <si>
+    <t>20240605-037</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>20240604-036</t>
+  </si>
+  <si>
+    <t>375.85</t>
+  </si>
+  <si>
+    <t>20240603-035</t>
+  </si>
+  <si>
+    <t>125.90</t>
+  </si>
+  <si>
+    <t>20240602-034</t>
+  </si>
+  <si>
+    <t>8100.25</t>
+  </si>
+  <si>
+    <t>20240601-033</t>
+  </si>
+  <si>
+    <t>4850.60</t>
+  </si>
+  <si>
+    <t>20240531-032</t>
+  </si>
+  <si>
+    <t>315.20</t>
+  </si>
+  <si>
+    <t>20240530-031</t>
+  </si>
+  <si>
+    <t>7200.35</t>
+  </si>
+  <si>
+    <t>20240529-030</t>
+  </si>
+  <si>
+    <t>20240528-029</t>
+  </si>
+  <si>
+    <t>20240527-028</t>
+  </si>
+  <si>
+    <t>8950.80</t>
+  </si>
+  <si>
+    <t>20240526-027</t>
+  </si>
+  <si>
+    <t>530.25</t>
+  </si>
+  <si>
+    <t>20240525-026</t>
+  </si>
+  <si>
+    <t>280.45</t>
+  </si>
+  <si>
+    <t>20240524-025</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>20240523-024</t>
+  </si>
+  <si>
+    <t>4150.75</t>
+  </si>
+  <si>
+    <t>20240522-023</t>
+  </si>
+  <si>
+    <t>20240521-022</t>
+  </si>
+  <si>
+    <t>7600.50</t>
+  </si>
+  <si>
+    <t>20240520-021</t>
+  </si>
+  <si>
+    <t>325.45</t>
+  </si>
+  <si>
+    <t>20240519-020</t>
+  </si>
+  <si>
+    <t>20240518-019</t>
+  </si>
+  <si>
+    <t>8300.25</t>
+  </si>
+  <si>
+    <t>20240517-018</t>
+  </si>
+  <si>
+    <t>20240516-017</t>
+  </si>
+  <si>
+    <t>170.25</t>
+  </si>
+  <si>
+    <t>20240515-016</t>
+  </si>
+  <si>
+    <t>5600.75</t>
+  </si>
+  <si>
+    <t>20240514-015</t>
+  </si>
+  <si>
+    <t>2850.35</t>
+  </si>
+  <si>
+    <t>20240513-014</t>
+  </si>
+  <si>
+    <t>135.60</t>
+  </si>
+  <si>
+    <t>20240512-013</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>20240511-012</t>
+  </si>
+  <si>
+    <t>375.90</t>
+  </si>
+  <si>
+    <t>20240510-011</t>
+  </si>
+  <si>
+    <t>210.40</t>
+  </si>
+  <si>
+    <t>20240509-010</t>
+  </si>
+  <si>
+    <t>20240508-009</t>
+  </si>
+  <si>
+    <t>4100.25</t>
+  </si>
+  <si>
+    <t>20240507-008</t>
+  </si>
+  <si>
+    <t>95.80</t>
+  </si>
+  <si>
+    <t>20240506-007</t>
+  </si>
+  <si>
+    <t>7250.00</t>
+  </si>
+  <si>
+    <t>20240505-006</t>
+  </si>
+  <si>
+    <t>3150.75</t>
+  </si>
+  <si>
+    <t>20240504-005</t>
+  </si>
+  <si>
+    <t>230.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2995,7 +4845,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3029,65 +4879,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4032,7 +5908,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8000,7 +9876,7 @@
       <c r="I144" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9005,10 +10881,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C1A28-29A3-45B6-820F-E32124768EB5}">
   <sheetPr codeName="Лист7"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9597,6 +11473,7927 @@
         <v>15</v>
       </c>
     </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="31"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="31">
+        <v>1</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>45413</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>931</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>905</v>
+      </c>
+      <c r="G27" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="31">
+        <v>2</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="33">
+        <v>1</v>
+      </c>
+      <c r="D28" s="37">
+        <v>45413</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>932</v>
+      </c>
+      <c r="F28" s="36">
+        <v>230.5</v>
+      </c>
+      <c r="G28" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="31">
+        <v>3</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="33">
+        <v>1</v>
+      </c>
+      <c r="D29" s="37">
+        <v>45414</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>933</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>906</v>
+      </c>
+      <c r="G29" s="35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="31">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="33">
+        <v>4</v>
+      </c>
+      <c r="D30" s="37">
+        <v>45415</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>934</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>907</v>
+      </c>
+      <c r="G30" s="35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="33">
+        <v>4</v>
+      </c>
+      <c r="D31" s="37">
+        <v>45415</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>935</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>908</v>
+      </c>
+      <c r="G31" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="31">
+        <v>6</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="33">
+        <v>0</v>
+      </c>
+      <c r="D32" s="37">
+        <v>45416</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>936</v>
+      </c>
+      <c r="F32" s="36">
+        <v>36434</v>
+      </c>
+      <c r="G32" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="31">
+        <v>7</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="37">
+        <v>45416</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>937</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>909</v>
+      </c>
+      <c r="G33" s="35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="31">
+        <v>8</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="33">
+        <v>0</v>
+      </c>
+      <c r="D34" s="37">
+        <v>45417</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>938</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>910</v>
+      </c>
+      <c r="G34" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="31">
+        <v>9</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="33">
+        <v>3</v>
+      </c>
+      <c r="D35" s="37">
+        <v>45418</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>939</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>911</v>
+      </c>
+      <c r="G35" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="31">
+        <v>10</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="33">
+        <v>3</v>
+      </c>
+      <c r="D36" s="37">
+        <v>45419</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>940</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="G36" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="31">
+        <v>11</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2</v>
+      </c>
+      <c r="D37" s="37">
+        <v>45420</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>941</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>913</v>
+      </c>
+      <c r="G37" s="35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="31">
+        <v>12</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="33">
+        <v>5</v>
+      </c>
+      <c r="D38" s="37">
+        <v>45421</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>942</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="G38" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="31">
+        <v>13</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="33">
+        <v>5</v>
+      </c>
+      <c r="D39" s="37">
+        <v>45422</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>915</v>
+      </c>
+      <c r="G39" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="31">
+        <v>14</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="33">
+        <v>7</v>
+      </c>
+      <c r="D40" s="37">
+        <v>45423</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="G40" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="31">
+        <v>15</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="33">
+        <v>6</v>
+      </c>
+      <c r="D41" s="37">
+        <v>45424</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>945</v>
+      </c>
+      <c r="F41" s="36">
+        <v>18384</v>
+      </c>
+      <c r="G41" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="31">
+        <v>16</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="33">
+        <v>4</v>
+      </c>
+      <c r="D42" s="37">
+        <v>45425</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>946</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="G42" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="31">
+        <v>17</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="33">
+        <v>9</v>
+      </c>
+      <c r="D43" s="37">
+        <v>45426</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>947</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="G43" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="31">
+        <v>18</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="33">
+        <v>7</v>
+      </c>
+      <c r="D44" s="37">
+        <v>45427</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="G44" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="31">
+        <v>19</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" s="33">
+        <v>0</v>
+      </c>
+      <c r="D45" s="37">
+        <v>45428</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>949</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="G45" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="31">
+        <v>20</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C46" s="33">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
+        <v>45429</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>950</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>921</v>
+      </c>
+      <c r="G46" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="31">
+        <v>21</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="33">
+        <v>0</v>
+      </c>
+      <c r="D47" s="37">
+        <v>45429</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>951</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>921</v>
+      </c>
+      <c r="G47" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="31">
+        <v>22</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="33">
+        <v>0</v>
+      </c>
+      <c r="D48" s="37">
+        <v>45429</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="G48" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="31">
+        <v>23</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="33">
+        <v>2</v>
+      </c>
+      <c r="D49" s="37">
+        <v>45428</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>954</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="G49" s="35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="31">
+        <v>24</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="33">
+        <v>1</v>
+      </c>
+      <c r="D50" s="37">
+        <v>45420</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>956</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="G50" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="31">
+        <v>25</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="33">
+        <v>0</v>
+      </c>
+      <c r="D51" s="32">
+        <v>45413</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="G51" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="31">
+        <v>26</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="33">
+        <v>0</v>
+      </c>
+      <c r="D52" s="32">
+        <v>45413</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G52" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="31">
+        <v>27</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="33">
+        <v>0</v>
+      </c>
+      <c r="D53" s="32">
+        <v>45414</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="G53" s="31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="31">
+        <v>28</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="33">
+        <v>0</v>
+      </c>
+      <c r="D54" s="32">
+        <v>45415</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G54" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="31">
+        <v>29</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="33">
+        <v>0</v>
+      </c>
+      <c r="D55" s="32">
+        <v>45416</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G55" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="31">
+        <v>30</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="33">
+        <v>0</v>
+      </c>
+      <c r="D56" s="32">
+        <v>45417</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G56" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="31">
+        <v>31</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="33">
+        <v>0</v>
+      </c>
+      <c r="D57" s="32">
+        <v>45418</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G57" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="31">
+        <v>32</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="33">
+        <v>0</v>
+      </c>
+      <c r="D58" s="32">
+        <v>45419</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G58" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="31">
+        <v>33</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="33">
+        <v>0</v>
+      </c>
+      <c r="D59" s="32">
+        <v>45420</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G59" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="31">
+        <v>34</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="33">
+        <v>0</v>
+      </c>
+      <c r="D60" s="32">
+        <v>45421</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G60" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="31">
+        <v>35</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="33">
+        <v>0</v>
+      </c>
+      <c r="D61" s="32">
+        <v>45422</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G61" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="31">
+        <v>36</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="33">
+        <v>0</v>
+      </c>
+      <c r="D62" s="32">
+        <v>45423</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G62" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="31">
+        <v>37</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="33">
+        <v>0</v>
+      </c>
+      <c r="D63" s="32">
+        <v>45424</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G63" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="31">
+        <v>38</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="33">
+        <v>0</v>
+      </c>
+      <c r="D64" s="32">
+        <v>45425</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G64" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="31">
+        <v>39</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="33">
+        <v>0</v>
+      </c>
+      <c r="D65" s="32">
+        <v>45426</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G65" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="31">
+        <v>40</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="33">
+        <v>0</v>
+      </c>
+      <c r="D66" s="32">
+        <v>45427</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G66" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="31">
+        <v>41</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="33">
+        <v>0</v>
+      </c>
+      <c r="D67" s="32">
+        <v>45428</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G67" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="31">
+        <v>42</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="33">
+        <v>0</v>
+      </c>
+      <c r="D68" s="32">
+        <v>45429</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G68" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="31">
+        <v>43</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="33">
+        <v>0</v>
+      </c>
+      <c r="D69" s="32">
+        <v>45430</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G69" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="31">
+        <v>44</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="33">
+        <v>0</v>
+      </c>
+      <c r="D70" s="32">
+        <v>45431</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G70" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="31">
+        <v>45</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="33">
+        <v>0</v>
+      </c>
+      <c r="D71" s="32">
+        <v>45432</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G71" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="31">
+        <v>46</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="33">
+        <v>0</v>
+      </c>
+      <c r="D72" s="32">
+        <v>45433</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G72" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="31">
+        <v>47</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="33">
+        <v>0</v>
+      </c>
+      <c r="D73" s="32">
+        <v>45434</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G73" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="31">
+        <v>48</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="33">
+        <v>0</v>
+      </c>
+      <c r="D74" s="32">
+        <v>45435</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G74" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="31">
+        <v>49</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" s="33">
+        <v>0</v>
+      </c>
+      <c r="D75" s="32">
+        <v>45436</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G75" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="31">
+        <v>50</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="33">
+        <v>0</v>
+      </c>
+      <c r="D76" s="32">
+        <v>45437</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G76" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="31">
+        <v>51</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="33">
+        <v>0</v>
+      </c>
+      <c r="D77" s="32">
+        <v>45438</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G77" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="31">
+        <v>52</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="33">
+        <v>0</v>
+      </c>
+      <c r="D78" s="32">
+        <v>45439</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G78" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="31">
+        <v>53</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" s="33">
+        <v>0</v>
+      </c>
+      <c r="D79" s="32">
+        <v>45440</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G79" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="31">
+        <v>54</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="33">
+        <v>0</v>
+      </c>
+      <c r="D80" s="32">
+        <v>45441</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G80" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="31">
+        <v>55</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C81" s="33">
+        <v>0</v>
+      </c>
+      <c r="D81" s="32">
+        <v>45442</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G81" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="31">
+        <v>56</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="33">
+        <v>0</v>
+      </c>
+      <c r="D82" s="32">
+        <v>45443</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G82" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="31">
+        <v>57</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" s="33">
+        <v>0</v>
+      </c>
+      <c r="D83" s="32">
+        <v>45444</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G83" s="31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="31">
+        <v>58</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" s="33">
+        <v>0</v>
+      </c>
+      <c r="D84" s="32">
+        <v>45445</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G84" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="31">
+        <v>59</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C85" s="33">
+        <v>0</v>
+      </c>
+      <c r="D85" s="32">
+        <v>45446</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G85" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="31">
+        <v>60</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" s="33">
+        <v>0</v>
+      </c>
+      <c r="D86" s="32">
+        <v>45447</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G86" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="31">
+        <v>61</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" s="33">
+        <v>0</v>
+      </c>
+      <c r="D87" s="32">
+        <v>45448</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G87" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="31">
+        <v>62</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" s="33">
+        <v>0</v>
+      </c>
+      <c r="D88" s="32">
+        <v>45449</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G88" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="31">
+        <v>63</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" s="33">
+        <v>0</v>
+      </c>
+      <c r="D89" s="32">
+        <v>45450</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G89" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="31">
+        <v>64</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" s="33">
+        <v>0</v>
+      </c>
+      <c r="D90" s="32">
+        <v>45451</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G90" s="31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="31">
+        <v>65</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C91" s="33">
+        <v>0</v>
+      </c>
+      <c r="D91" s="32">
+        <v>45452</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G91" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="31">
+        <v>66</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" s="33">
+        <v>0</v>
+      </c>
+      <c r="D92" s="32">
+        <v>45453</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G92" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="31">
+        <v>67</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93" s="33">
+        <v>0</v>
+      </c>
+      <c r="D93" s="32">
+        <v>45454</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G93" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="31">
+        <v>68</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C94" s="33">
+        <v>0</v>
+      </c>
+      <c r="D94" s="32">
+        <v>45455</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G94" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="31">
+        <v>69</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="C95" s="33">
+        <v>0</v>
+      </c>
+      <c r="D95" s="32">
+        <v>45456</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G95" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="31">
+        <v>70</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="33">
+        <v>0</v>
+      </c>
+      <c r="D96" s="32">
+        <v>45457</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G96" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="31">
+        <v>71</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" s="33">
+        <v>0</v>
+      </c>
+      <c r="D97" s="32">
+        <v>45458</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G97" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="31">
+        <v>72</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" s="33">
+        <v>0</v>
+      </c>
+      <c r="D98" s="32">
+        <v>45459</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G98" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="31">
+        <v>73</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C99" s="33">
+        <v>0</v>
+      </c>
+      <c r="D99" s="32">
+        <v>45460</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G99" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="31">
+        <v>74</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>926</v>
+      </c>
+      <c r="C100" s="33">
+        <v>0</v>
+      </c>
+      <c r="D100" s="32">
+        <v>45461</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G100" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="31">
+        <v>75</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C101" s="33">
+        <v>0</v>
+      </c>
+      <c r="D101" s="32">
+        <v>45462</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G101" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="31">
+        <v>76</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" s="33">
+        <v>0</v>
+      </c>
+      <c r="D102" s="32">
+        <v>45463</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G102" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="31">
+        <v>77</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103" s="33">
+        <v>0</v>
+      </c>
+      <c r="D103" s="32">
+        <v>45464</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G103" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="31">
+        <v>78</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" s="33">
+        <v>0</v>
+      </c>
+      <c r="D104" s="32">
+        <v>45465</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G104" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="31">
+        <v>79</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" s="33">
+        <v>0</v>
+      </c>
+      <c r="D105" s="32">
+        <v>45466</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G105" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="31">
+        <v>80</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" s="33">
+        <v>0</v>
+      </c>
+      <c r="D106" s="32">
+        <v>45467</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G106" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="31">
+        <v>81</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C107" s="33">
+        <v>0</v>
+      </c>
+      <c r="D107" s="32">
+        <v>45468</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G107" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="31">
+        <v>82</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C108" s="33">
+        <v>0</v>
+      </c>
+      <c r="D108" s="32">
+        <v>45469</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G108" s="31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="31">
+        <v>83</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" s="33">
+        <v>0</v>
+      </c>
+      <c r="D109" s="32">
+        <v>45470</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G109" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="31">
+        <v>84</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C110" s="33">
+        <v>0</v>
+      </c>
+      <c r="D110" s="32">
+        <v>45471</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G110" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="31">
+        <v>85</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" s="33">
+        <v>0</v>
+      </c>
+      <c r="D111" s="32">
+        <v>45472</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G111" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="31">
+        <v>86</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C112" s="33">
+        <v>0</v>
+      </c>
+      <c r="D112" s="32">
+        <v>45473</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G112" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="31">
+        <v>87</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" s="33">
+        <v>0</v>
+      </c>
+      <c r="D113" s="32">
+        <v>45474</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G113" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="31">
+        <v>88</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="C114" s="33">
+        <v>0</v>
+      </c>
+      <c r="D114" s="32">
+        <v>45475</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G114" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="31">
+        <v>89</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" s="33">
+        <v>0</v>
+      </c>
+      <c r="D115" s="32">
+        <v>45476</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G115" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="31">
+        <v>90</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="C116" s="33">
+        <v>0</v>
+      </c>
+      <c r="D116" s="32">
+        <v>45477</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G116" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="31">
+        <v>91</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="33">
+        <v>0</v>
+      </c>
+      <c r="D117" s="32">
+        <v>45478</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G117" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="31">
+        <v>92</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="C118" s="33">
+        <v>0</v>
+      </c>
+      <c r="D118" s="32">
+        <v>45479</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G118" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="31">
+        <v>93</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="C119" s="33">
+        <v>0</v>
+      </c>
+      <c r="D119" s="32">
+        <v>45480</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G119" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="31">
+        <v>94</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C120" s="33">
+        <v>0</v>
+      </c>
+      <c r="D120" s="32">
+        <v>45481</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G120" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="31">
+        <v>95</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="C121" s="33">
+        <v>0</v>
+      </c>
+      <c r="D121" s="32">
+        <v>45482</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G121" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="31">
+        <v>96</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="C122" s="33">
+        <v>0</v>
+      </c>
+      <c r="D122" s="32">
+        <v>45483</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G122" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="31">
+        <v>97</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="C123" s="33">
+        <v>0</v>
+      </c>
+      <c r="D123" s="32">
+        <v>45484</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G123" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="31">
+        <v>98</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124" s="33">
+        <v>0</v>
+      </c>
+      <c r="D124" s="32">
+        <v>45485</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G124" s="31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="31">
+        <v>99</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="C125" s="33">
+        <v>0</v>
+      </c>
+      <c r="D125" s="32">
+        <v>45486</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G125" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="31">
+        <v>100</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" s="33">
+        <v>0</v>
+      </c>
+      <c r="D126" s="32">
+        <v>45487</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G126" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="31">
+        <v>101</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C127" s="33">
+        <v>0</v>
+      </c>
+      <c r="D127" s="32">
+        <v>45488</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G127" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="31">
+        <v>102</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C128" s="33">
+        <v>0</v>
+      </c>
+      <c r="D128" s="32">
+        <v>45489</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G128" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="31">
+        <v>103</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="C129" s="33">
+        <v>0</v>
+      </c>
+      <c r="D129" s="32">
+        <v>45490</v>
+      </c>
+      <c r="E129" s="31" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G129" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="31">
+        <v>104</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="C130" s="33">
+        <v>0</v>
+      </c>
+      <c r="D130" s="32">
+        <v>45491</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G130" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="31">
+        <v>105</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="C131" s="33">
+        <v>0</v>
+      </c>
+      <c r="D131" s="32">
+        <v>45492</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G131" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="31">
+        <v>106</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="C132" s="33">
+        <v>0</v>
+      </c>
+      <c r="D132" s="32">
+        <v>45493</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G132" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="31">
+        <v>107</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="C133" s="33">
+        <v>0</v>
+      </c>
+      <c r="D133" s="32">
+        <v>45494</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G133" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="31">
+        <v>108</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="C134" s="33">
+        <v>0</v>
+      </c>
+      <c r="D134" s="32">
+        <v>45495</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G134" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="31">
+        <v>109</v>
+      </c>
+      <c r="B135" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C135" s="33">
+        <v>0</v>
+      </c>
+      <c r="D135" s="32">
+        <v>45496</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G135" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="31">
+        <v>110</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="C136" s="33">
+        <v>0</v>
+      </c>
+      <c r="D136" s="32">
+        <v>45497</v>
+      </c>
+      <c r="E136" s="31" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G136" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="31">
+        <v>111</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="C137" s="33">
+        <v>0</v>
+      </c>
+      <c r="D137" s="32">
+        <v>45498</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G137" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="31">
+        <v>112</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C138" s="33">
+        <v>0</v>
+      </c>
+      <c r="D138" s="32">
+        <v>45499</v>
+      </c>
+      <c r="E138" s="31" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G138" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="31">
+        <v>113</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="C139" s="33">
+        <v>0</v>
+      </c>
+      <c r="D139" s="32">
+        <v>45500</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G139" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="31">
+        <v>114</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="C140" s="33">
+        <v>0</v>
+      </c>
+      <c r="D140" s="32">
+        <v>45501</v>
+      </c>
+      <c r="E140" s="31" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G140" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="31">
+        <v>115</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="C141" s="33">
+        <v>0</v>
+      </c>
+      <c r="D141" s="32">
+        <v>45502</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F141" s="31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G141" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="31">
+        <v>116</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="C142" s="33">
+        <v>0</v>
+      </c>
+      <c r="D142" s="32">
+        <v>45503</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G142" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="31">
+        <v>117</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="33">
+        <v>0</v>
+      </c>
+      <c r="D143" s="32">
+        <v>45504</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G143" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="31">
+        <v>118</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="C144" s="33">
+        <v>0</v>
+      </c>
+      <c r="D144" s="32">
+        <v>45505</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G144" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="31">
+        <v>119</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="C145" s="33">
+        <v>0</v>
+      </c>
+      <c r="D145" s="32">
+        <v>45506</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F145" s="31" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G145" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="31">
+        <v>120</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="C146" s="33">
+        <v>0</v>
+      </c>
+      <c r="D146" s="32">
+        <v>45507</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F146" s="31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G146" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="31">
+        <v>121</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="C147" s="33">
+        <v>0</v>
+      </c>
+      <c r="D147" s="32">
+        <v>45508</v>
+      </c>
+      <c r="E147" s="31" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F147" s="31" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G147" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="31">
+        <v>122</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="C148" s="33">
+        <v>0</v>
+      </c>
+      <c r="D148" s="32">
+        <v>45509</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F148" s="31" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G148" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="31">
+        <v>123</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="C149" s="33">
+        <v>0</v>
+      </c>
+      <c r="D149" s="32">
+        <v>45510</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F149" s="31" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G149" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="31">
+        <v>124</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="C150" s="33">
+        <v>0</v>
+      </c>
+      <c r="D150" s="32">
+        <v>45511</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F150" s="31" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G150" s="31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="31">
+        <v>125</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="C151" s="33">
+        <v>0</v>
+      </c>
+      <c r="D151" s="32">
+        <v>45512</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F151" s="31" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G151" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="31">
+        <v>126</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="C152" s="33">
+        <v>0</v>
+      </c>
+      <c r="D152" s="32">
+        <v>45513</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F152" s="31" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G152" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="31">
+        <v>127</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="C153" s="33">
+        <v>0</v>
+      </c>
+      <c r="D153" s="32">
+        <v>45514</v>
+      </c>
+      <c r="E153" s="31" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G153" s="31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="31">
+        <v>128</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C154" s="33">
+        <v>0</v>
+      </c>
+      <c r="D154" s="32">
+        <v>45515</v>
+      </c>
+      <c r="E154" s="31" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G154" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="31">
+        <v>129</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="C155" s="33">
+        <v>0</v>
+      </c>
+      <c r="D155" s="32">
+        <v>45516</v>
+      </c>
+      <c r="E155" s="31" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F155" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G155" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="31">
+        <v>130</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C156" s="33">
+        <v>0</v>
+      </c>
+      <c r="D156" s="32">
+        <v>45517</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F156" s="31" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G156" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="31">
+        <v>131</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="C157" s="33">
+        <v>0</v>
+      </c>
+      <c r="D157" s="32">
+        <v>45518</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F157" s="31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G157" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="31">
+        <v>132</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="C158" s="33">
+        <v>0</v>
+      </c>
+      <c r="D158" s="32">
+        <v>45519</v>
+      </c>
+      <c r="E158" s="31" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F158" s="31" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G158" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="31">
+        <v>133</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="C159" s="33">
+        <v>0</v>
+      </c>
+      <c r="D159" s="32">
+        <v>45520</v>
+      </c>
+      <c r="E159" s="31" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F159" s="31" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G159" s="31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="31">
+        <v>134</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="C160" s="33">
+        <v>0</v>
+      </c>
+      <c r="D160" s="32">
+        <v>45521</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F160" s="31" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G160" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="31">
+        <v>135</v>
+      </c>
+      <c r="B161" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C161" s="33">
+        <v>0</v>
+      </c>
+      <c r="D161" s="32">
+        <v>45522</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F161" s="31" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G161" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="31">
+        <v>136</v>
+      </c>
+      <c r="B162" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="C162" s="33">
+        <v>0</v>
+      </c>
+      <c r="D162" s="32">
+        <v>45523</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F162" s="31" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G162" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="31">
+        <v>137</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="C163" s="33">
+        <v>0</v>
+      </c>
+      <c r="D163" s="32">
+        <v>45524</v>
+      </c>
+      <c r="E163" s="31" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F163" s="31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G163" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="31">
+        <v>138</v>
+      </c>
+      <c r="B164" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="C164" s="33">
+        <v>0</v>
+      </c>
+      <c r="D164" s="32">
+        <v>45525</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F164" s="31" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G164" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="31">
+        <v>139</v>
+      </c>
+      <c r="B165" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="C165" s="33">
+        <v>0</v>
+      </c>
+      <c r="D165" s="32">
+        <v>45526</v>
+      </c>
+      <c r="E165" s="31" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F165" s="31" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G165" s="31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="31">
+        <v>140</v>
+      </c>
+      <c r="B166" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="C166" s="33">
+        <v>0</v>
+      </c>
+      <c r="D166" s="32">
+        <v>45527</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F166" s="31" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G166" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="31">
+        <v>141</v>
+      </c>
+      <c r="B167" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="C167" s="33">
+        <v>0</v>
+      </c>
+      <c r="D167" s="32">
+        <v>45528</v>
+      </c>
+      <c r="E167" s="31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F167" s="31" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G167" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="31">
+        <v>142</v>
+      </c>
+      <c r="B168" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C168" s="33">
+        <v>0</v>
+      </c>
+      <c r="D168" s="32">
+        <v>45529</v>
+      </c>
+      <c r="E168" s="31" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F168" s="31" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G168" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="31">
+        <v>143</v>
+      </c>
+      <c r="B169" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="C169" s="33">
+        <v>0</v>
+      </c>
+      <c r="D169" s="32">
+        <v>45530</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F169" s="31" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G169" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="31">
+        <v>144</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="C170" s="33">
+        <v>0</v>
+      </c>
+      <c r="D170" s="32">
+        <v>45531</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F170" s="31" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G170" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="31">
+        <v>145</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="C171" s="33">
+        <v>0</v>
+      </c>
+      <c r="D171" s="32">
+        <v>45532</v>
+      </c>
+      <c r="E171" s="31" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F171" s="31" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G171" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="31">
+        <v>146</v>
+      </c>
+      <c r="B172" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="C172" s="33">
+        <v>0</v>
+      </c>
+      <c r="D172" s="32">
+        <v>45533</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G172" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="31">
+        <v>147</v>
+      </c>
+      <c r="B173" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="C173" s="33">
+        <v>0</v>
+      </c>
+      <c r="D173" s="32">
+        <v>45534</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F173" s="31" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G173" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="31">
+        <v>148</v>
+      </c>
+      <c r="B174" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="C174" s="33">
+        <v>0</v>
+      </c>
+      <c r="D174" s="32">
+        <v>45535</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F174" s="31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G174" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="31">
+        <v>149</v>
+      </c>
+      <c r="B175" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="C175" s="33">
+        <v>0</v>
+      </c>
+      <c r="D175" s="32">
+        <v>45536</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F175" s="31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G175" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="31">
+        <v>150</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="C176" s="33">
+        <v>0</v>
+      </c>
+      <c r="D176" s="32">
+        <v>45537</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F176" s="31" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G176" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="31">
+        <v>151</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="C177" s="33">
+        <v>0</v>
+      </c>
+      <c r="D177" s="32">
+        <v>45538</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F177" s="31" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G177" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="31">
+        <v>152</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C178" s="31">
+        <v>5</v>
+      </c>
+      <c r="D178" s="32">
+        <v>45728</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F178" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G178" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="31">
+        <v>153</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C179" s="31">
+        <v>8</v>
+      </c>
+      <c r="D179" s="32">
+        <v>45784</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F179" s="31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G179" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="31">
+        <v>154</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" s="31">
+        <v>2</v>
+      </c>
+      <c r="D180" s="32">
+        <v>45702</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F180" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G180" s="31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="31">
+        <v>155</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C181" s="31">
+        <v>11</v>
+      </c>
+      <c r="D181" s="32">
+        <v>45686</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G181" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="31">
+        <v>156</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="C182" s="31">
+        <v>3</v>
+      </c>
+      <c r="D182" s="32">
+        <v>45769</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G182" s="31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="31">
+        <v>157</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C183" s="31">
+        <v>9</v>
+      </c>
+      <c r="D183" s="32">
+        <v>45733</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G183" s="31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="31">
+        <v>158</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C184" s="31">
+        <v>6</v>
+      </c>
+      <c r="D184" s="32">
+        <v>45813</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G184" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="31">
+        <v>159</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="C185" s="31">
+        <v>12</v>
+      </c>
+      <c r="D185" s="32">
+        <v>45637</v>
+      </c>
+      <c r="E185" s="31" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F185" s="31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G185" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="31">
+        <v>160</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="C186" s="31">
+        <v>4</v>
+      </c>
+      <c r="D186" s="32">
+        <v>45796</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>989</v>
+      </c>
+      <c r="G186" s="31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="31">
+        <v>161</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C187" s="31">
+        <v>7</v>
+      </c>
+      <c r="D187" s="32">
+        <v>45750</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F187" s="31" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G187" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="31">
+        <v>162</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C188" s="31">
+        <v>1</v>
+      </c>
+      <c r="D188" s="32">
+        <v>45716</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F188" s="31" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G188" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="31">
+        <v>163</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="C189" s="31">
+        <v>10</v>
+      </c>
+      <c r="D189" s="32">
+        <v>45802</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F189" s="31" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G189" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="31">
+        <v>164</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" s="31">
+        <v>5</v>
+      </c>
+      <c r="D190" s="32">
+        <v>45666</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G190" s="31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="31">
+        <v>165</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C191" s="31">
+        <v>8</v>
+      </c>
+      <c r="D191" s="32">
+        <v>45746</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G191" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="31">
+        <v>166</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="C192" s="31">
+        <v>2</v>
+      </c>
+      <c r="D192" s="32">
+        <v>45760</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G192" s="31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="31">
+        <v>167</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C193" s="31">
+        <v>11</v>
+      </c>
+      <c r="D193" s="32">
+        <v>45695</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F193" s="31" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G193" s="31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="31">
+        <v>168</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C194" s="31">
+        <v>3</v>
+      </c>
+      <c r="D194" s="32">
+        <v>45467</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F194" s="31" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G194" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="31">
+        <v>169</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C195" s="31">
+        <v>9</v>
+      </c>
+      <c r="D195" s="32">
+        <v>45795</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F195" s="31" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G195" s="31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="31">
+        <v>170</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C196" s="31">
+        <v>6</v>
+      </c>
+      <c r="D196" s="32">
+        <v>45628</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F196" s="31" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G196" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="31">
+        <v>171</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C197" s="31">
+        <v>12</v>
+      </c>
+      <c r="D197" s="32">
+        <v>45731</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F197" s="31" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G197" s="31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="31">
+        <v>172</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="C198" s="31">
+        <v>4</v>
+      </c>
+      <c r="D198" s="32">
+        <v>45684</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F198" s="31" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G198" s="31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="31">
+        <v>173</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C199" s="31">
+        <v>7</v>
+      </c>
+      <c r="D199" s="32">
+        <v>45755</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F199" s="31" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G199" s="31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="31">
+        <v>174</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="C200" s="31">
+        <v>1</v>
+      </c>
+      <c r="D200" s="32">
+        <v>45617</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F200" s="31" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G200" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="31">
+        <v>175</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C201" s="31">
+        <v>10</v>
+      </c>
+      <c r="D201" s="32">
+        <v>45783</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F201" s="31" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G201" s="31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="31">
+        <v>176</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C202" s="31">
+        <v>5</v>
+      </c>
+      <c r="D202" s="32">
+        <v>45745</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F202" s="31" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G202" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="31">
+        <v>177</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="C203" s="31">
+        <v>8</v>
+      </c>
+      <c r="D203" s="32">
+        <v>45791</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F203" s="31" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G203" s="31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="31">
+        <v>178</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="C204" s="31">
+        <v>2</v>
+      </c>
+      <c r="D204" s="32">
+        <v>45661</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F204" s="31" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G204" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="31">
+        <v>179</v>
+      </c>
+      <c r="B205" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205" s="31">
+        <v>11</v>
+      </c>
+      <c r="D205" s="32">
+        <v>45711</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F205" s="31" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G205" s="31">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="31">
+        <v>180</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C206" s="31">
+        <v>3</v>
+      </c>
+      <c r="D206" s="32">
+        <v>45460</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F206" s="31" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G206" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="31">
+        <v>181</v>
+      </c>
+      <c r="B207" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C207" s="31">
+        <v>9</v>
+      </c>
+      <c r="D207" s="32">
+        <v>45575</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F207" s="31" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G207" s="31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="31">
+        <v>182</v>
+      </c>
+      <c r="B208" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="C208" s="31">
+        <v>6</v>
+      </c>
+      <c r="D208" s="32">
+        <v>45536</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F208" s="31" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G208" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="31">
+        <v>183</v>
+      </c>
+      <c r="B209" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="C209" s="31">
+        <v>12</v>
+      </c>
+      <c r="D209" s="32">
+        <v>45773</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F209" s="31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G209" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="31">
+        <v>184</v>
+      </c>
+      <c r="B210" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C210" s="31">
+        <v>4</v>
+      </c>
+      <c r="D210" s="32">
+        <v>45735</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F210" s="31" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G210" s="31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="31">
+        <v>185</v>
+      </c>
+      <c r="B211" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C211" s="31">
+        <v>7</v>
+      </c>
+      <c r="D211" s="32">
+        <v>45789</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F211" s="31" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G211" s="31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="31">
+        <v>186</v>
+      </c>
+      <c r="B212" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C212" s="31">
+        <v>1</v>
+      </c>
+      <c r="D212" s="32">
+        <v>45601</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F212" s="31" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G212" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="31">
+        <v>187</v>
+      </c>
+      <c r="B213" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C213" s="31">
+        <v>10</v>
+      </c>
+      <c r="D213" s="32">
+        <v>45716</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F213" s="31" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G213" s="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="31">
+        <v>188</v>
+      </c>
+      <c r="B214" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="C214" s="31">
+        <v>5</v>
+      </c>
+      <c r="D214" s="32">
+        <v>45672</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F214" s="31" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G214" s="31">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="31">
+        <v>189</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="C215" s="31">
+        <v>8</v>
+      </c>
+      <c r="D215" s="32">
+        <v>45756</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F215" s="31" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G215" s="31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="31">
+        <v>190</v>
+      </c>
+      <c r="B216" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="C216" s="31">
+        <v>2</v>
+      </c>
+      <c r="D216" s="32">
+        <v>45738</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F216" s="31" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G216" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="31">
+        <v>191</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="C217" s="31">
+        <v>11</v>
+      </c>
+      <c r="D217" s="32">
+        <v>45456</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F217" s="31" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G217" s="31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="31">
+        <v>192</v>
+      </c>
+      <c r="B218" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="C218" s="31">
+        <v>3</v>
+      </c>
+      <c r="D218" s="32">
+        <v>45807</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F218" s="31" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G218" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="31">
+        <v>193</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C219" s="31">
+        <v>9</v>
+      </c>
+      <c r="D219" s="32">
+        <v>45771</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F219" s="31" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G219" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="31">
+        <v>194</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="C220" s="31">
+        <v>6</v>
+      </c>
+      <c r="D220" s="32">
+        <v>45633</v>
+      </c>
+      <c r="E220" s="31" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F220" s="31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G220" s="31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="31">
+        <v>195</v>
+      </c>
+      <c r="B221" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C221" s="31">
+        <v>12</v>
+      </c>
+      <c r="D221" s="32">
+        <v>45677</v>
+      </c>
+      <c r="E221" s="31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F221" s="31" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G221" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="31">
+        <v>196</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="C222" s="31">
+        <v>4</v>
+      </c>
+      <c r="D222" s="32">
+        <v>45706</v>
+      </c>
+      <c r="E222" s="31" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F222" s="31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G222" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="31">
+        <v>197</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C223" s="31">
+        <v>7</v>
+      </c>
+      <c r="D223" s="32">
+        <v>45727</v>
+      </c>
+      <c r="E223" s="31" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F223" s="31" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G223" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="31">
+        <v>198</v>
+      </c>
+      <c r="B224" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C224" s="31">
+        <v>1</v>
+      </c>
+      <c r="D224" s="32">
+        <v>45781</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F224" s="31" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G224" s="31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="31">
+        <v>199</v>
+      </c>
+      <c r="B225" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="C225" s="31">
+        <v>10</v>
+      </c>
+      <c r="D225" s="32">
+        <v>45774</v>
+      </c>
+      <c r="E225" s="31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F225" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G225" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="31">
+        <v>200</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="C226" s="31">
+        <v>5</v>
+      </c>
+      <c r="D226" s="32">
+        <v>45457</v>
+      </c>
+      <c r="E226" s="31" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F226" s="31" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G226" s="31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="31">
+        <v>201</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C227" s="31">
+        <v>8</v>
+      </c>
+      <c r="D227" s="32">
+        <v>45544</v>
+      </c>
+      <c r="E227" s="31" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F227" s="31" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G227" s="31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="31">
+        <v>202</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="C228" s="31">
+        <v>2</v>
+      </c>
+      <c r="D228" s="32">
+        <v>45690</v>
+      </c>
+      <c r="E228" s="31" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F228" s="31" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G228" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="31">
+        <v>203</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C229" s="31">
+        <v>11</v>
+      </c>
+      <c r="D229" s="32">
+        <v>45741</v>
+      </c>
+      <c r="E229" s="31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F229" s="31" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G229" s="31">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="31">
+        <v>204</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="C230" s="31">
+        <v>3</v>
+      </c>
+      <c r="D230" s="32">
+        <v>45765</v>
+      </c>
+      <c r="E230" s="31" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F230" s="31" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G230" s="31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="31">
+        <v>205</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C231" s="31">
+        <v>9</v>
+      </c>
+      <c r="D231" s="32">
+        <v>45788</v>
+      </c>
+      <c r="E231" s="31" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F231" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G231" s="31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="31">
+        <v>206</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C232" s="31">
+        <v>6</v>
+      </c>
+      <c r="D232" s="32">
+        <v>45570</v>
+      </c>
+      <c r="E232" s="31" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F232" s="31" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G232" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="31">
+        <v>207</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C233" s="31">
+        <v>12</v>
+      </c>
+      <c r="D233" s="32">
+        <v>45685</v>
+      </c>
+      <c r="E233" s="31" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F233" s="31" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G233" s="31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="31">
+        <v>208</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="C234" s="31">
+        <v>4</v>
+      </c>
+      <c r="D234" s="32">
+        <v>45798</v>
+      </c>
+      <c r="E234" s="31" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F234" s="31" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G234" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="31">
+        <v>209</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="C235" s="31">
+        <v>7</v>
+      </c>
+      <c r="D235" s="32">
+        <v>45640</v>
+      </c>
+      <c r="E235" s="31" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F235" s="31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G235" s="31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="31">
+        <v>210</v>
+      </c>
+      <c r="B236" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C236" s="31">
+        <v>1</v>
+      </c>
+      <c r="D236" s="32">
+        <v>45723</v>
+      </c>
+      <c r="E236" s="31" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F236" s="31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G236" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="31">
+        <v>211</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="C237" s="31">
+        <v>10</v>
+      </c>
+      <c r="D237" s="32">
+        <v>45777</v>
+      </c>
+      <c r="E237" s="31" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F237" s="31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G237" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="31">
+        <v>212</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C238" s="31">
+        <v>5</v>
+      </c>
+      <c r="D238" s="32">
+        <v>45711</v>
+      </c>
+      <c r="E238" s="31" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F238" s="31" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G238" s="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="31">
+        <v>213</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>925</v>
+      </c>
+      <c r="C239" s="31">
+        <v>8</v>
+      </c>
+      <c r="D239" s="32">
+        <v>45793</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F239" s="31" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G239" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="31">
+        <v>214</v>
+      </c>
+      <c r="B240" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C240" s="31">
+        <v>2</v>
+      </c>
+      <c r="D240" s="32">
+        <v>45452</v>
+      </c>
+      <c r="E240" s="31" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F240" s="31" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G240" s="31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="31">
+        <v>215</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C241" s="31">
+        <v>11</v>
+      </c>
+      <c r="D241" s="32">
+        <v>45537</v>
+      </c>
+      <c r="E241" s="31" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F241" s="31" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G241" s="31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="31">
+        <v>216</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C242" s="31">
+        <v>3</v>
+      </c>
+      <c r="D242" s="32">
+        <v>45772</v>
+      </c>
+      <c r="E242" s="31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F242" s="31" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G242" s="31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="31">
+        <v>217</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C243" s="31">
+        <v>9</v>
+      </c>
+      <c r="D243" s="32">
+        <v>45734</v>
+      </c>
+      <c r="E243" s="31" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F243" s="31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G243" s="31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="31">
+        <v>218</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="C244" s="31">
+        <v>6</v>
+      </c>
+      <c r="D244" s="32">
+        <v>45607</v>
+      </c>
+      <c r="E244" s="31" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F244" s="31" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G244" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="31">
+        <v>219</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C245" s="31">
+        <v>12</v>
+      </c>
+      <c r="D245" s="32">
+        <v>45692</v>
+      </c>
+      <c r="E245" s="31" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F245" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G245" s="31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="31">
+        <v>220</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C246" s="31">
+        <v>4</v>
+      </c>
+      <c r="D246" s="32">
+        <v>45804</v>
+      </c>
+      <c r="E246" s="31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F246" s="31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G246" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="31">
+        <v>221</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C247" s="31">
+        <v>7</v>
+      </c>
+      <c r="D247" s="32">
+        <v>45677</v>
+      </c>
+      <c r="E247" s="31" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F247" s="31" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G247" s="31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="31">
+        <v>222</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="C248" s="31">
+        <v>1</v>
+      </c>
+      <c r="D248" s="32">
+        <v>45760</v>
+      </c>
+      <c r="E248" s="31" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F248" s="31" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G248" s="31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="31">
+        <v>223</v>
+      </c>
+      <c r="B249" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="C249" s="31">
+        <v>10</v>
+      </c>
+      <c r="D249" s="32">
+        <v>45632</v>
+      </c>
+      <c r="E249" s="31" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F249" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G249" s="31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="31">
+        <v>224</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="C250" s="31">
+        <v>5</v>
+      </c>
+      <c r="D250" s="32">
+        <v>45745</v>
+      </c>
+      <c r="E250" s="31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F250" s="31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G250" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="31">
+        <v>225</v>
+      </c>
+      <c r="B251" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C251" s="31">
+        <v>8</v>
+      </c>
+      <c r="D251" s="32">
+        <v>45799</v>
+      </c>
+      <c r="E251" s="31" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F251" s="31" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G251" s="31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="31">
+        <v>226</v>
+      </c>
+      <c r="B252" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="C252" s="31">
+        <v>2</v>
+      </c>
+      <c r="D252" s="32">
+        <v>45703</v>
+      </c>
+      <c r="E252" s="31" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F252" s="31" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G252" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="31">
+        <v>227</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C253" s="31">
+        <v>11</v>
+      </c>
+      <c r="D253" s="32">
+        <v>45755</v>
+      </c>
+      <c r="E253" s="31" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F253" s="31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G253" s="31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="31">
+        <v>228</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="C254" s="31">
+        <v>3</v>
+      </c>
+      <c r="D254" s="32">
+        <v>45658</v>
+      </c>
+      <c r="E254" s="31" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F254" s="31" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G254" s="31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="31">
+        <v>229</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C255" s="31">
+        <v>9</v>
+      </c>
+      <c r="D255" s="32">
+        <v>45467</v>
+      </c>
+      <c r="E255" s="31" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F255" s="31" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G255" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="31">
+        <v>230</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C256" s="31">
+        <v>6</v>
+      </c>
+      <c r="D256" s="32">
+        <v>45794</v>
+      </c>
+      <c r="E256" s="31" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F256" s="31" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G256" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="31">
+        <v>231</v>
+      </c>
+      <c r="B257" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="C257" s="31">
+        <v>12</v>
+      </c>
+      <c r="D257" s="32">
+        <v>45726</v>
+      </c>
+      <c r="E257" s="31" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F257" s="31" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G257" s="31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="31">
+        <v>232</v>
+      </c>
+      <c r="B258" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C258" s="31">
+        <v>4</v>
+      </c>
+      <c r="D258" s="32">
+        <v>45507</v>
+      </c>
+      <c r="E258" s="31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F258" s="31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G258" s="31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="31">
+        <v>233</v>
+      </c>
+      <c r="B259" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C259" s="31">
+        <v>7</v>
+      </c>
+      <c r="D259" s="32">
+        <v>45773</v>
+      </c>
+      <c r="E259" s="31" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F259" s="31" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G259" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="31">
+        <v>234</v>
+      </c>
+      <c r="B260" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C260" s="31">
+        <v>1</v>
+      </c>
+      <c r="D260" s="32">
+        <v>45676</v>
+      </c>
+      <c r="E260" s="31" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F260" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G260" s="31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="31">
+        <v>235</v>
+      </c>
+      <c r="B261" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="C261" s="31">
+        <v>10</v>
+      </c>
+      <c r="D261" s="32">
+        <v>45789</v>
+      </c>
+      <c r="E261" s="31" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F261" s="31" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G261" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="31">
+        <v>236</v>
+      </c>
+      <c r="B262" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C262" s="31">
+        <v>5</v>
+      </c>
+      <c r="D262" s="32">
+        <v>45570</v>
+      </c>
+      <c r="E262" s="31" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F262" s="31" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G262" s="31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="31">
+        <v>237</v>
+      </c>
+      <c r="B263" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C263" s="31">
+        <v>8</v>
+      </c>
+      <c r="D263" s="32">
+        <v>45716</v>
+      </c>
+      <c r="E263" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F263" s="31" t="s">
+        <v>974</v>
+      </c>
+      <c r="G263" s="31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="31">
+        <v>238</v>
+      </c>
+      <c r="B264" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C264" s="31">
+        <v>2</v>
+      </c>
+      <c r="D264" s="32">
+        <v>45737</v>
+      </c>
+      <c r="E264" s="31" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F264" s="31" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G264" s="31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="31">
+        <v>239</v>
+      </c>
+      <c r="B265" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C265" s="31">
+        <v>11</v>
+      </c>
+      <c r="D265" s="32">
+        <v>45761</v>
+      </c>
+      <c r="E265" s="31" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F265" s="31" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G265" s="31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="31">
+        <v>240</v>
+      </c>
+      <c r="B266" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="C266" s="31">
+        <v>3</v>
+      </c>
+      <c r="D266" s="32">
+        <v>45784</v>
+      </c>
+      <c r="E266" s="31" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F266" s="31" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G266" s="31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="31">
+        <v>241</v>
+      </c>
+      <c r="B267" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C267" s="31">
+        <v>9</v>
+      </c>
+      <c r="D267" s="32">
+        <v>45807</v>
+      </c>
+      <c r="E267" s="31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F267" s="31" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G267" s="31">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="31">
+        <v>242</v>
+      </c>
+      <c r="B268" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C268" s="31">
+        <v>6</v>
+      </c>
+      <c r="D268" s="32">
+        <v>45649</v>
+      </c>
+      <c r="E268" s="31" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F268" s="31" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G268" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="31">
+        <v>243</v>
+      </c>
+      <c r="B269" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="C269" s="31">
+        <v>12</v>
+      </c>
+      <c r="D269" s="32">
+        <v>45673</v>
+      </c>
+      <c r="E269" s="31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F269" s="31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G269" s="31">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="31">
+        <v>244</v>
+      </c>
+      <c r="B270" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C270" s="31">
+        <v>4</v>
+      </c>
+      <c r="D270" s="32">
+        <v>45725</v>
+      </c>
+      <c r="E270" s="31" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F270" s="31" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G270" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="31">
+        <v>245</v>
+      </c>
+      <c r="B271" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C271" s="31">
+        <v>7</v>
+      </c>
+      <c r="D271" s="32">
+        <v>45749</v>
+      </c>
+      <c r="E271" s="31" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F271" s="31" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G271" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="31">
+        <v>246</v>
+      </c>
+      <c r="B272" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C272" s="31">
+        <v>1</v>
+      </c>
+      <c r="D272" s="32">
+        <v>45802</v>
+      </c>
+      <c r="E272" s="31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F272" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G272" s="31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="31">
+        <v>247</v>
+      </c>
+      <c r="B273" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C273" s="31">
+        <v>10</v>
+      </c>
+      <c r="D273" s="32">
+        <v>45461</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F273" s="31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G273" s="31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="31">
+        <v>248</v>
+      </c>
+      <c r="B274" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C274" s="31">
+        <v>5</v>
+      </c>
+      <c r="D274" s="32">
+        <v>45607</v>
+      </c>
+      <c r="E274" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F274" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G274" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="31">
+        <v>249</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="C275" s="31">
+        <v>8</v>
+      </c>
+      <c r="D275" s="32">
+        <v>45692</v>
+      </c>
+      <c r="E275" s="31" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F275" s="31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G275" s="31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="31">
+        <v>250</v>
+      </c>
+      <c r="B276" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C276" s="31">
+        <v>2</v>
+      </c>
+      <c r="D276" s="32">
+        <v>45743</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F276" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G276" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="31">
+        <v>251</v>
+      </c>
+      <c r="B277" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C277" s="31">
+        <v>11</v>
+      </c>
+      <c r="D277" s="32">
+        <v>45767</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F277" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G277" s="31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="31">
+        <v>252</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="C278" s="31">
+        <v>3</v>
+      </c>
+      <c r="D278" s="32">
+        <v>45790</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F278" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G278" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="31">
+        <v>253</v>
+      </c>
+      <c r="B279" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="C279" s="31">
+        <v>9</v>
+      </c>
+      <c r="D279" s="32">
+        <v>45632</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F279" s="31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G279" s="31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="31">
+        <v>254</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C280" s="31">
+        <v>6</v>
+      </c>
+      <c r="D280" s="32">
+        <v>45686</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F280" s="31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G280" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="31">
+        <v>255</v>
+      </c>
+      <c r="B281" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C281" s="31">
+        <v>12</v>
+      </c>
+      <c r="D281" s="32">
+        <v>45710</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F281" s="31" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G281" s="31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="31">
+        <v>256</v>
+      </c>
+      <c r="B282" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C282" s="31">
+        <v>4</v>
+      </c>
+      <c r="D282" s="32">
+        <v>45731</v>
+      </c>
+      <c r="E282" s="31" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F282" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G282" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="31">
+        <v>257</v>
+      </c>
+      <c r="B283" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C283" s="31">
+        <v>7</v>
+      </c>
+      <c r="D283" s="32">
+        <v>45755</v>
+      </c>
+      <c r="E283" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F283" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G283" s="31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="31">
+        <v>258</v>
+      </c>
+      <c r="B284" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C284" s="31">
+        <v>1</v>
+      </c>
+      <c r="D284" s="32">
+        <v>45778</v>
+      </c>
+      <c r="E284" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F284" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G284" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="31">
+        <v>259</v>
+      </c>
+      <c r="B285" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="C285" s="31">
+        <v>10</v>
+      </c>
+      <c r="D285" s="32">
+        <v>45801</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F285" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G285" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="31">
+        <v>260</v>
+      </c>
+      <c r="B286" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C286" s="31">
+        <v>5</v>
+      </c>
+      <c r="D286" s="32">
+        <v>45460</v>
+      </c>
+      <c r="E286" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F286" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G286" s="31">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="31">
+        <v>261</v>
+      </c>
+      <c r="B287" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="C287" s="31">
+        <v>8</v>
+      </c>
+      <c r="D287" s="32">
+        <v>45575</v>
+      </c>
+      <c r="E287" s="31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F287" s="31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G287" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="31">
+        <v>262</v>
+      </c>
+      <c r="B288" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C288" s="31">
+        <v>2</v>
+      </c>
+      <c r="D288" s="32">
+        <v>45599</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F288" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G288" s="31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="31">
+        <v>263</v>
+      </c>
+      <c r="B289" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C289" s="31">
+        <v>11</v>
+      </c>
+      <c r="D289" s="32">
+        <v>45773</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F289" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G289" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="31">
+        <v>264</v>
+      </c>
+      <c r="B290" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="C290" s="31">
+        <v>3</v>
+      </c>
+      <c r="D290" s="32">
+        <v>45796</v>
+      </c>
+      <c r="E290" s="31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F290" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="G290" s="31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="31">
+        <v>265</v>
+      </c>
+      <c r="B291" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C291" s="31">
+        <v>9</v>
+      </c>
+      <c r="D291" s="32">
+        <v>45638</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F291" s="31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G291" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="31">
+        <v>266</v>
+      </c>
+      <c r="B292" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C292" s="31">
+        <v>6</v>
+      </c>
+      <c r="D292" s="32">
+        <v>45662</v>
+      </c>
+      <c r="E292" s="31" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F292" s="31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G292" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="31">
+        <v>267</v>
+      </c>
+      <c r="B293" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="C293" s="31">
+        <v>12</v>
+      </c>
+      <c r="D293" s="32">
+        <v>45716</v>
+      </c>
+      <c r="E293" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F293" s="31" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G293" s="31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="31">
+        <v>268</v>
+      </c>
+      <c r="B294" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C294" s="31">
+        <v>4</v>
+      </c>
+      <c r="D294" s="32">
+        <v>45737</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F294" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G294" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="31">
+        <v>269</v>
+      </c>
+      <c r="B295" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C295" s="31">
+        <v>7</v>
+      </c>
+      <c r="D295" s="32">
+        <v>45761</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F295" s="31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G295" s="31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="31">
+        <v>270</v>
+      </c>
+      <c r="B296" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C296" s="31">
+        <v>1</v>
+      </c>
+      <c r="D296" s="32">
+        <v>45784</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F296" s="31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G296" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="31">
+        <v>271</v>
+      </c>
+      <c r="B297" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C297" s="31">
+        <v>10</v>
+      </c>
+      <c r="D297" s="32">
+        <v>45807</v>
+      </c>
+      <c r="E297" s="31" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F297" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G297" s="31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="31">
+        <v>272</v>
+      </c>
+      <c r="B298" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C298" s="31">
+        <v>5</v>
+      </c>
+      <c r="D298" s="32">
+        <v>45466</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F298" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G298" s="31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="31">
+        <v>273</v>
+      </c>
+      <c r="B299" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="C299" s="31">
+        <v>8</v>
+      </c>
+      <c r="D299" s="32">
+        <v>45551</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F299" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G299" s="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="31">
+        <v>274</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="C300" s="31">
+        <v>2</v>
+      </c>
+      <c r="D300" s="32">
+        <v>45697</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F300" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G300" s="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="31">
+        <v>275</v>
+      </c>
+      <c r="B301" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="C301" s="31">
+        <v>11</v>
+      </c>
+      <c r="D301" s="32">
+        <v>45718</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F301" s="31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G301" s="31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="31">
+        <v>276</v>
+      </c>
+      <c r="B302" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C302" s="31">
+        <v>3</v>
+      </c>
+      <c r="D302" s="32">
+        <v>45772</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F302" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="G302" s="31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="31">
+        <v>277</v>
+      </c>
+      <c r="B303" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="C303" s="31">
+        <v>9</v>
+      </c>
+      <c r="D303" s="32">
+        <v>45795</v>
+      </c>
+      <c r="E303" s="31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F303" s="31" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G303" s="31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="31">
+        <v>278</v>
+      </c>
+      <c r="B304" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="C304" s="31">
+        <v>6</v>
+      </c>
+      <c r="D304" s="32">
+        <v>45454</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F304" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G304" s="31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="31">
+        <v>279</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C305" s="31">
+        <v>12</v>
+      </c>
+      <c r="D305" s="32">
+        <v>45477</v>
+      </c>
+      <c r="E305" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F305" s="31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G305" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="31">
+        <v>280</v>
+      </c>
+      <c r="B306" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="C306" s="31">
+        <v>4</v>
+      </c>
+      <c r="D306" s="32">
+        <v>45684</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F306" s="31" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G306" s="31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="31">
+        <v>281</v>
+      </c>
+      <c r="B307" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C307" s="31">
+        <v>7</v>
+      </c>
+      <c r="D307" s="32">
+        <v>45736</v>
+      </c>
+      <c r="E307" s="31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F307" s="31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G307" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="31">
+        <v>282</v>
+      </c>
+      <c r="B308" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C308" s="31">
+        <v>1</v>
+      </c>
+      <c r="D308" s="32">
+        <v>45760</v>
+      </c>
+      <c r="E308" s="31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F308" s="31" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G308" s="31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="31">
+        <v>283</v>
+      </c>
+      <c r="B309" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C309" s="31">
+        <v>10</v>
+      </c>
+      <c r="D309" s="32">
+        <v>45783</v>
+      </c>
+      <c r="E309" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F309" s="31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G309" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="31">
+        <v>284</v>
+      </c>
+      <c r="B310" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="C310" s="31">
+        <v>5</v>
+      </c>
+      <c r="D310" s="32">
+        <v>45806</v>
+      </c>
+      <c r="E310" s="31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F310" s="31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G310" s="31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="31">
+        <v>285</v>
+      </c>
+      <c r="B311" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C311" s="31">
+        <v>8</v>
+      </c>
+      <c r="D311" s="32">
+        <v>45648</v>
+      </c>
+      <c r="E311" s="31" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F311" s="31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G311" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="31">
+        <v>286</v>
+      </c>
+      <c r="B312" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C312" s="31">
+        <v>2</v>
+      </c>
+      <c r="D312" s="32">
+        <v>45672</v>
+      </c>
+      <c r="E312" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F312" s="31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G312" s="31">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="31">
+        <v>287</v>
+      </c>
+      <c r="B313" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="C313" s="31">
+        <v>11</v>
+      </c>
+      <c r="D313" s="32">
+        <v>45724</v>
+      </c>
+      <c r="E313" s="31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F313" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G313" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="31">
+        <v>288</v>
+      </c>
+      <c r="B314" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C314" s="31">
+        <v>3</v>
+      </c>
+      <c r="D314" s="32">
+        <v>45748</v>
+      </c>
+      <c r="E314" s="31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F314" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G314" s="31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="31">
+        <v>289</v>
+      </c>
+      <c r="B315" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="C315" s="31">
+        <v>9</v>
+      </c>
+      <c r="D315" s="32">
+        <v>45801</v>
+      </c>
+      <c r="E315" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F315" s="31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G315" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="31">
+        <v>290</v>
+      </c>
+      <c r="B316" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="C316" s="31">
+        <v>6</v>
+      </c>
+      <c r="D316" s="32">
+        <v>45460</v>
+      </c>
+      <c r="E316" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F316" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G316" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="31">
+        <v>291</v>
+      </c>
+      <c r="B317" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C317" s="31">
+        <v>12</v>
+      </c>
+      <c r="D317" s="32">
+        <v>45575</v>
+      </c>
+      <c r="E317" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F317" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G317" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="31">
+        <v>292</v>
+      </c>
+      <c r="B318" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="C318" s="31">
+        <v>4</v>
+      </c>
+      <c r="D318" s="32">
+        <v>45599</v>
+      </c>
+      <c r="E318" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F318" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G318" s="31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="31">
+        <v>293</v>
+      </c>
+      <c r="B319" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C319" s="31">
+        <v>7</v>
+      </c>
+      <c r="D319" s="32">
+        <v>45773</v>
+      </c>
+      <c r="E319" s="31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F319" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G319" s="31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="31">
+        <v>294</v>
+      </c>
+      <c r="B320" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="C320" s="31">
+        <v>1</v>
+      </c>
+      <c r="D320" s="32">
+        <v>45796</v>
+      </c>
+      <c r="E320" s="31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F320" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G320" s="31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="31">
+        <v>295</v>
+      </c>
+      <c r="B321" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C321" s="31">
+        <v>10</v>
+      </c>
+      <c r="D321" s="32">
+        <v>45455</v>
+      </c>
+      <c r="E321" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F321" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G321" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="31">
+        <v>296</v>
+      </c>
+      <c r="B322" s="31" t="s">
+        <v>926</v>
+      </c>
+      <c r="C322" s="31">
+        <v>5</v>
+      </c>
+      <c r="D322" s="32">
+        <v>45662</v>
+      </c>
+      <c r="E322" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F322" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G322" s="31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="31">
+        <v>297</v>
+      </c>
+      <c r="B323" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="C323" s="31">
+        <v>8</v>
+      </c>
+      <c r="D323" s="32">
+        <v>45716</v>
+      </c>
+      <c r="E323" s="31" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F323" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G323" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="31">
+        <v>298</v>
+      </c>
+      <c r="B324" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C324" s="31">
+        <v>2</v>
+      </c>
+      <c r="D324" s="32">
+        <v>45737</v>
+      </c>
+      <c r="E324" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F324" s="31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G324" s="31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="31">
+        <v>299</v>
+      </c>
+      <c r="B325" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C325" s="31">
+        <v>11</v>
+      </c>
+      <c r="D325" s="32">
+        <v>45761</v>
+      </c>
+      <c r="E325" s="31" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F325" s="31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G325" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="31">
+        <v>300</v>
+      </c>
+      <c r="B326" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C326" s="31">
+        <v>3</v>
+      </c>
+      <c r="D326" s="32">
+        <v>45784</v>
+      </c>
+      <c r="E326" s="31" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F326" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G326" s="31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="31">
+        <v>301</v>
+      </c>
+      <c r="B327" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C327" s="31">
+        <v>9</v>
+      </c>
+      <c r="D327" s="32">
+        <v>45807</v>
+      </c>
+      <c r="E327" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F327" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G327" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="31">
+        <v>302</v>
+      </c>
+      <c r="B328" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="C328" s="31">
+        <v>6</v>
+      </c>
+      <c r="D328" s="32">
+        <v>45649</v>
+      </c>
+      <c r="E328" s="31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F328" s="31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G328" s="31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="31">
+        <v>303</v>
+      </c>
+      <c r="B329" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="C329" s="31">
+        <v>12</v>
+      </c>
+      <c r="D329" s="32">
+        <v>45704</v>
+      </c>
+      <c r="E329" s="31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F329" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G329" s="31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="31">
+        <v>304</v>
+      </c>
+      <c r="B330" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C330" s="31">
+        <v>4</v>
+      </c>
+      <c r="D330" s="32">
+        <v>45725</v>
+      </c>
+      <c r="E330" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F330" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G330" s="31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="31">
+        <v>305</v>
+      </c>
+      <c r="B331" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C331" s="31">
+        <v>7</v>
+      </c>
+      <c r="D331" s="32">
+        <v>45749</v>
+      </c>
+      <c r="E331" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F331" s="31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G331" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="31">
+        <v>306</v>
+      </c>
+      <c r="B332" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C332" s="31">
+        <v>1</v>
+      </c>
+      <c r="D332" s="32">
+        <v>45802</v>
+      </c>
+      <c r="E332" s="31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F332" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G332" s="31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="31">
+        <v>307</v>
+      </c>
+      <c r="B333" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C333" s="31">
+        <v>10</v>
+      </c>
+      <c r="D333" s="32">
+        <v>45461</v>
+      </c>
+      <c r="E333" s="31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F333" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G333" s="31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="31">
+        <v>308</v>
+      </c>
+      <c r="B334" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C334" s="31">
+        <v>5</v>
+      </c>
+      <c r="D334" s="32">
+        <v>45546</v>
+      </c>
+      <c r="E334" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F334" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G334" s="31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="31">
+        <v>309</v>
+      </c>
+      <c r="B335" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C335" s="31">
+        <v>8</v>
+      </c>
+      <c r="D335" s="32">
+        <v>45569</v>
+      </c>
+      <c r="E335" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F335" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G335" s="31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="31">
+        <v>310</v>
+      </c>
+      <c r="B336" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C336" s="31">
+        <v>2</v>
+      </c>
+      <c r="D336" s="32">
+        <v>45774</v>
+      </c>
+      <c r="E336" s="31" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F336" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G336" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="31">
+        <v>311</v>
+      </c>
+      <c r="B337" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C337" s="31">
+        <v>11</v>
+      </c>
+      <c r="D337" s="32">
+        <v>45797</v>
+      </c>
+      <c r="E337" s="31" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F337" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G337" s="31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="31">
+        <v>312</v>
+      </c>
+      <c r="B338" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C338" s="31">
+        <v>3</v>
+      </c>
+      <c r="D338" s="32">
+        <v>45456</v>
+      </c>
+      <c r="E338" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F338" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G338" s="31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="31">
+        <v>313</v>
+      </c>
+      <c r="B339" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C339" s="31">
+        <v>9</v>
+      </c>
+      <c r="D339" s="32">
+        <v>45663</v>
+      </c>
+      <c r="E339" s="31" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F339" s="31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G339" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="31">
+        <v>314</v>
+      </c>
+      <c r="B340" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="C340" s="31">
+        <v>6</v>
+      </c>
+      <c r="D340" s="32">
+        <v>45745</v>
+      </c>
+      <c r="E340" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F340" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G340" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="31">
+        <v>315</v>
+      </c>
+      <c r="B341" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C341" s="31">
+        <v>12</v>
+      </c>
+      <c r="D341" s="32">
+        <v>45769</v>
+      </c>
+      <c r="E341" s="31" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F341" s="31" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G341" s="31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="31">
+        <v>316</v>
+      </c>
+      <c r="B342" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="C342" s="31">
+        <v>4</v>
+      </c>
+      <c r="D342" s="32">
+        <v>45792</v>
+      </c>
+      <c r="E342" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F342" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G342" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="31">
+        <v>317</v>
+      </c>
+      <c r="B343" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="C343" s="31">
+        <v>7</v>
+      </c>
+      <c r="D343" s="32">
+        <v>45451</v>
+      </c>
+      <c r="E343" s="31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F343" s="31" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G343" s="31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="31">
+        <v>318</v>
+      </c>
+      <c r="B344" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C344" s="31">
+        <v>1</v>
+      </c>
+      <c r="D344" s="32">
+        <v>45474</v>
+      </c>
+      <c r="E344" s="31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F344" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G344" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="31">
+        <v>319</v>
+      </c>
+      <c r="B345" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C345" s="31">
+        <v>10</v>
+      </c>
+      <c r="D345" s="32">
+        <v>45712</v>
+      </c>
+      <c r="E345" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F345" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G345" s="31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="31">
+        <v>320</v>
+      </c>
+      <c r="B346" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C346" s="31">
+        <v>5</v>
+      </c>
+      <c r="D346" s="32">
+        <v>45733</v>
+      </c>
+      <c r="E346" s="31" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F346" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G346" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="31">
+        <v>321</v>
+      </c>
+      <c r="B347" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C347" s="31">
+        <v>8</v>
+      </c>
+      <c r="D347" s="32">
+        <v>45757</v>
+      </c>
+      <c r="E347" s="31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F347" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G347" s="31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="31">
+        <v>322</v>
+      </c>
+      <c r="B348" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="C348" s="31">
+        <v>2</v>
+      </c>
+      <c r="D348" s="32">
+        <v>45780</v>
+      </c>
+      <c r="E348" s="31" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F348" s="31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G348" s="31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="31">
+        <v>323</v>
+      </c>
+      <c r="B349" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="C349" s="31">
+        <v>11</v>
+      </c>
+      <c r="D349" s="32">
+        <v>45803</v>
+      </c>
+      <c r="E349" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F349" s="31" t="s">
+        <v>999</v>
+      </c>
+      <c r="G349" s="31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="31">
+        <v>324</v>
+      </c>
+      <c r="B350" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C350" s="31">
+        <v>3</v>
+      </c>
+      <c r="D350" s="32">
+        <v>45462</v>
+      </c>
+      <c r="E350" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="F350" s="31" t="s">
+        <v>997</v>
+      </c>
+      <c r="G350" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="31">
+        <v>325</v>
+      </c>
+      <c r="B351" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C351" s="31">
+        <v>9</v>
+      </c>
+      <c r="D351" s="32">
+        <v>45577</v>
+      </c>
+      <c r="E351" s="31" t="s">
+        <v>996</v>
+      </c>
+      <c r="F351" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="G351" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="31">
+        <v>326</v>
+      </c>
+      <c r="B352" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C352" s="31">
+        <v>6</v>
+      </c>
+      <c r="D352" s="32">
+        <v>45601</v>
+      </c>
+      <c r="E352" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="F352" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="G352" s="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="31">
+        <v>327</v>
+      </c>
+      <c r="B353" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C353" s="31">
+        <v>12</v>
+      </c>
+      <c r="D353" s="32">
+        <v>45775</v>
+      </c>
+      <c r="E353" s="31" t="s">
+        <v>992</v>
+      </c>
+      <c r="F353" s="31" t="s">
+        <v>991</v>
+      </c>
+      <c r="G353" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="31">
+        <v>328</v>
+      </c>
+      <c r="B354" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C354" s="31">
+        <v>4</v>
+      </c>
+      <c r="D354" s="32">
+        <v>45798</v>
+      </c>
+      <c r="E354" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="F354" s="31" t="s">
+        <v>989</v>
+      </c>
+      <c r="G354" s="31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="31">
+        <v>329</v>
+      </c>
+      <c r="B355" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C355" s="31">
+        <v>7</v>
+      </c>
+      <c r="D355" s="32">
+        <v>45457</v>
+      </c>
+      <c r="E355" s="31" t="s">
+        <v>988</v>
+      </c>
+      <c r="F355" s="31" t="s">
+        <v>987</v>
+      </c>
+      <c r="G355" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="31">
+        <v>330</v>
+      </c>
+      <c r="B356" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C356" s="31">
+        <v>1</v>
+      </c>
+      <c r="D356" s="32">
+        <v>45664</v>
+      </c>
+      <c r="E356" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="F356" s="31" t="s">
+        <v>985</v>
+      </c>
+      <c r="G356" s="31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="31">
+        <v>331</v>
+      </c>
+      <c r="B357" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C357" s="31">
+        <v>10</v>
+      </c>
+      <c r="D357" s="32">
+        <v>45746</v>
+      </c>
+      <c r="E357" s="31" t="s">
+        <v>984</v>
+      </c>
+      <c r="F357" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="G357" s="31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="31">
+        <v>332</v>
+      </c>
+      <c r="B358" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C358" s="31">
+        <v>5</v>
+      </c>
+      <c r="D358" s="32">
+        <v>45770</v>
+      </c>
+      <c r="E358" s="31" t="s">
+        <v>982</v>
+      </c>
+      <c r="F358" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="G358" s="31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="31">
+        <v>333</v>
+      </c>
+      <c r="B359" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C359" s="31">
+        <v>8</v>
+      </c>
+      <c r="D359" s="32">
+        <v>45793</v>
+      </c>
+      <c r="E359" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="F359" s="31" t="s">
+        <v>915</v>
+      </c>
+      <c r="G359" s="31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="31">
+        <v>334</v>
+      </c>
+      <c r="B360" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C360" s="31">
+        <v>2</v>
+      </c>
+      <c r="D360" s="32">
+        <v>45452</v>
+      </c>
+      <c r="E360" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="F360" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="G360" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="31">
+        <v>335</v>
+      </c>
+      <c r="B361" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="C361" s="31">
+        <v>11</v>
+      </c>
+      <c r="D361" s="32">
+        <v>45475</v>
+      </c>
+      <c r="E361" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="F361" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="G361" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="31">
+        <v>336</v>
+      </c>
+      <c r="B362" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C362" s="31">
+        <v>3</v>
+      </c>
+      <c r="D362" s="32">
+        <v>45682</v>
+      </c>
+      <c r="E362" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="F362" s="31" t="s">
+        <v>974</v>
+      </c>
+      <c r="G362" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="31">
+        <v>337</v>
+      </c>
+      <c r="B363" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C363" s="31">
+        <v>9</v>
+      </c>
+      <c r="D363" s="32">
+        <v>45734</v>
+      </c>
+      <c r="E363" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="F363" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="G363" s="31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="31">
+        <v>338</v>
+      </c>
+      <c r="B364" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="C364" s="31">
+        <v>6</v>
+      </c>
+      <c r="D364" s="32">
+        <v>45758</v>
+      </c>
+      <c r="E364" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="F364" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="G364" s="31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="31">
+        <v>339</v>
+      </c>
+      <c r="B365" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C365" s="31">
+        <v>12</v>
+      </c>
+      <c r="D365" s="32">
+        <v>45781</v>
+      </c>
+      <c r="E365" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="F365" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="G365" s="31">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="31">
+        <v>340</v>
+      </c>
+      <c r="B366" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C366" s="31">
+        <v>4</v>
+      </c>
+      <c r="D366" s="32">
+        <v>45804</v>
+      </c>
+      <c r="E366" s="31" t="s">
+        <v>967</v>
+      </c>
+      <c r="F366" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="G366" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="31">
+        <v>341</v>
+      </c>
+      <c r="B367" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C367" s="31">
+        <v>7</v>
+      </c>
+      <c r="D367" s="32">
+        <v>45463</v>
+      </c>
+      <c r="E367" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="F367" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="G367" s="31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="31">
+        <v>342</v>
+      </c>
+      <c r="B368" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C368" s="31">
+        <v>1</v>
+      </c>
+      <c r="D368" s="32">
+        <v>45548</v>
+      </c>
+      <c r="E368" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="F368" s="31" t="s">
+        <v>962</v>
+      </c>
+      <c r="G368" s="31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="31">
+        <v>343</v>
+      </c>
+      <c r="B369" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C369" s="31">
+        <v>10</v>
+      </c>
+      <c r="D369" s="32">
+        <v>45694</v>
+      </c>
+      <c r="E369" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="F369" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G369" s="31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="31">
+        <v>344</v>
+      </c>
+      <c r="B370" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C370" s="31">
+        <v>5</v>
+      </c>
+      <c r="D370" s="32">
+        <v>45776</v>
+      </c>
+      <c r="E370" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="F370" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="G370" s="31">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Документы/Начальные данные.xlsx
+++ b/Документы/Начальные данные.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718103C-5818-473E-8851-D5528B574AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D554C2C-4B88-4A7E-942D-5521B3DA3EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1624">
   <si>
     <t>Наименование</t>
   </si>
@@ -2721,9 +2721,6 @@
     <t>Склад ЦМО 2</t>
   </si>
   <si>
-    <t>Склад инструментов ЦСМ</t>
-  </si>
-  <si>
     <t>Центральный инструментальный цех</t>
   </si>
   <si>
@@ -4747,6 +4744,165 @@
   </si>
   <si>
     <t>230.50</t>
+  </si>
+  <si>
+    <t>Склад списанного инструмента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Склад инструмента подлежащего ремонту </t>
+  </si>
+  <si>
+    <t>Цех по ремонту инструмента</t>
+  </si>
+  <si>
+    <t>Цех гальванических покрытий</t>
+  </si>
+  <si>
+    <t>Цех плазменной резки</t>
+  </si>
+  <si>
+    <t>Цех лазерной обработки</t>
+  </si>
+  <si>
+    <t>Цех порошковой металлургии</t>
+  </si>
+  <si>
+    <t>Цех гидроабразивной резки</t>
+  </si>
+  <si>
+    <t>Цех вакуумной формовки</t>
+  </si>
+  <si>
+    <t>Цех ультразвуковой сварки</t>
+  </si>
+  <si>
+    <t>Цех роботизированной сборки</t>
+  </si>
+  <si>
+    <t>Цех 3D-печати металлом</t>
+  </si>
+  <si>
+    <t>Цех финишной доводки</t>
+  </si>
+  <si>
+    <t>Склад металлопроката ЦМО</t>
+  </si>
+  <si>
+    <t>Склад алюминиевых заготовок ЦМО</t>
+  </si>
+  <si>
+    <t>Склад крепежа и комплектующих ЦСМ</t>
+  </si>
+  <si>
+    <t>Склад электронных компонентов ЦСМ</t>
+  </si>
+  <si>
+    <t>Склад полимерных материалов ЦКМ</t>
+  </si>
+  <si>
+    <t>Склад углеродного волокна ЦКМ</t>
+  </si>
+  <si>
+    <t>Склад термообработанных деталей ЦТО</t>
+  </si>
+  <si>
+    <t>Склад закалочных сред ЦТО</t>
+  </si>
+  <si>
+    <t>Склад пресс-форм ЦИП</t>
+  </si>
+  <si>
+    <t>Склад мерительного инструмента ЦИП</t>
+  </si>
+  <si>
+    <t>Склад грунтов и растворителей ЦПА</t>
+  </si>
+  <si>
+    <t>Склад антикоррозийных покрытий ЦПА</t>
+  </si>
+  <si>
+    <t>Склад эталонных образцов ЦКК</t>
+  </si>
+  <si>
+    <t>Склад бракованной продукции ЦКК</t>
+  </si>
+  <si>
+    <t>Склад испытательных стендов ЦИ</t>
+  </si>
+  <si>
+    <t>Склад датчиков и измерителей ЦИ</t>
+  </si>
+  <si>
+    <t>Склад литейных форм ЦЛП</t>
+  </si>
+  <si>
+    <t>Склад шихтовых материалов ЦЛП</t>
+  </si>
+  <si>
+    <t>Склад подшипников и редукторов РМЦ</t>
+  </si>
+  <si>
+    <t>Склад гидравлики и пневматики РМЦ</t>
+  </si>
+  <si>
+    <t>Склад расходных материалов ЦГП</t>
+  </si>
+  <si>
+    <t>Склад химических реактивов ЦГП</t>
+  </si>
+  <si>
+    <t>Склад плазменных горелок ЦПР</t>
+  </si>
+  <si>
+    <t>Склад расходных электродов ЦПР</t>
+  </si>
+  <si>
+    <t>Склад оптики для лазеров ЦЛО</t>
+  </si>
+  <si>
+    <t>Склад защитных стекол ЦЛО</t>
+  </si>
+  <si>
+    <t>Склад металлических порошков ЦПМ</t>
+  </si>
+  <si>
+    <t>Склад связующих веществ ЦПМ</t>
+  </si>
+  <si>
+    <t>Склад абразивных материалов ЦГР</t>
+  </si>
+  <si>
+    <t>Склад водяных фильтров ЦГР</t>
+  </si>
+  <si>
+    <t>Склад вакуумных мембран ЦВФ</t>
+  </si>
+  <si>
+    <t>Склад полимерных листов ЦВФ</t>
+  </si>
+  <si>
+    <t>Склад ультразвуковых излучателей ЦУС</t>
+  </si>
+  <si>
+    <t>Склад сварочных наконечников ЦУС</t>
+  </si>
+  <si>
+    <t>Склад роботизированных манипуляторов ЦРС</t>
+  </si>
+  <si>
+    <t>Склад сервоприводов ЦРС</t>
+  </si>
+  <si>
+    <t>Склад металлических порошков для 3D-печати Ц3Д</t>
+  </si>
+  <si>
+    <t>Склад поддержек и субстратов Ц3Д</t>
+  </si>
+  <si>
+    <t>Склад абразивных паст ЦФД</t>
+  </si>
+  <si>
+    <t>Склад полировальных кругов ЦФД</t>
   </si>
 </sst>
 </file>
@@ -4845,7 +5001,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4894,11 +5050,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4965,6 +5147,16 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5958,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>922</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -7281,7 +7473,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -8767,13 +8959,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="B105" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="C105" s="26" t="s">
         <v>928</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>929</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -9862,10 +10054,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -9899,7 +10091,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>791</v>
@@ -10595,10 +10787,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4084A77-5CED-4FBA-BFAE-5FC3B75121A8}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A13" sqref="A13:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10699,7 +10891,87 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>897</v>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="40">
+        <v>11</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="40">
+        <v>12</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="40">
+        <v>13</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="40">
+        <v>14</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="40">
+        <v>15</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="40">
+        <v>16</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="40">
+        <v>17</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="40">
+        <v>18</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="40">
+        <v>19</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="40">
+        <v>20</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
@@ -10711,166 +10983,623 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8EE27-F367-4B11-B129-6F1768C09639}">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="39" t="s">
         <v>883</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="39" t="s">
         <v>884</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="39" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="17">
+    <row r="2" spans="1:3">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="39" t="s">
         <v>886</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="39" t="s">
         <v>887</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="17">
+    <row r="4" spans="1:3">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="39" t="s">
         <v>888</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="17">
+    <row r="5" spans="1:3">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="39" t="s">
         <v>889</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="17">
+    <row r="6" spans="1:3">
+      <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="39" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="38">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="17">
+    <row r="7" spans="1:3">
+      <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="17">
+    <row r="8" spans="1:3">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="17">
+    <row r="9" spans="1:3">
+      <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="39" t="s">
         <v>893</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="38">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="17">
+    <row r="10" spans="1:3">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="39" t="s">
         <v>894</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="17">
+    <row r="11" spans="1:3">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="39" t="s">
         <v>895</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A12" s="17">
+    <row r="12" spans="1:3">
+      <c r="A12" s="38">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="39" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C12" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18">
+      <c r="A13" s="38">
         <v>0</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>898</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="C13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="38">
+        <v>12</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="38">
+        <v>13</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C15" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="43">
+        <v>14</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C16" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="43">
+        <v>15</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="43">
+        <v>16</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C18" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="43">
+        <v>17</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C19" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="43">
+        <v>18</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C20" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="43">
+        <v>19</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C21" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="43">
+        <v>20</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C22" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="43">
+        <v>21</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C23" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="43">
+        <v>22</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C24" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="43">
+        <v>23</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C25" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="43">
+        <v>24</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C26" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="43">
+        <v>25</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C27" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="43">
+        <v>26</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C28" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="43">
+        <v>27</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C29" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="43">
+        <v>28</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C30" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="43">
+        <v>29</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C31" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="43">
+        <v>30</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C32" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="43">
+        <v>31</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C33" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="43">
+        <v>32</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C34" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="43">
+        <v>33</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C35" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="43">
+        <v>34</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C36" s="43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="43">
+        <v>35</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C37" s="43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="43">
+        <v>36</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C38" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="43">
+        <v>37</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C39" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="43">
+        <v>38</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C40" s="43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="43">
+        <v>39</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C41" s="43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="43">
+        <v>40</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C42" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C43" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="43">
+        <v>42</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C44" s="43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="43">
+        <v>43</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C45" s="43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="43">
+        <v>44</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C46" s="43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="43">
+        <v>45</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C47" s="43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="43">
+        <v>46</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C48" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="43">
+        <v>47</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C49" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="43">
+        <v>48</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C50" s="43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="43">
+        <v>49</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C51" s="43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="43">
+        <v>50</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C52" s="43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="43">
+        <v>51</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C53" s="43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="43">
+        <v>52</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C54" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="43">
+        <v>53</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C55" s="43">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10883,7 +11612,7 @@
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
@@ -10900,25 +11629,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>899</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>900</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>883</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>900</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>903</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
@@ -10935,10 +11664,10 @@
         <v>45413</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="16">
         <v>15</v>
@@ -10958,7 +11687,7 @@
         <v>45413</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F3" s="21">
         <v>230.5</v>
@@ -10981,10 +11710,10 @@
         <v>45414</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G4" s="16">
         <v>54</v>
@@ -11004,10 +11733,10 @@
         <v>45415</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G5" s="16">
         <v>16</v>
@@ -11027,10 +11756,10 @@
         <v>45415</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G6" s="16">
         <v>6</v>
@@ -11050,7 +11779,7 @@
         <v>45416</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F7" s="21">
         <v>36434</v>
@@ -11073,10 +11802,10 @@
         <v>45416</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G8" s="16">
         <v>226</v>
@@ -11096,10 +11825,10 @@
         <v>45417</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G9" s="16">
         <v>7</v>
@@ -11119,10 +11848,10 @@
         <v>45418</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G10" s="16">
         <v>25</v>
@@ -11142,10 +11871,10 @@
         <v>45419</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G11" s="16">
         <v>7</v>
@@ -11165,10 +11894,10 @@
         <v>45420</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G12" s="16">
         <v>34</v>
@@ -11188,10 +11917,10 @@
         <v>45421</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G13" s="16">
         <v>6</v>
@@ -11211,10 +11940,10 @@
         <v>45422</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G14" s="16">
         <v>8</v>
@@ -11234,10 +11963,10 @@
         <v>45423</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G15" s="16">
         <v>9</v>
@@ -11257,7 +11986,7 @@
         <v>45424</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F16" s="21">
         <v>18384</v>
@@ -11280,10 +12009,10 @@
         <v>45425</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G17" s="16">
         <v>7</v>
@@ -11303,10 +12032,10 @@
         <v>45426</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -11326,10 +12055,10 @@
         <v>45427</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G19" s="16">
         <v>4</v>
@@ -11349,10 +12078,10 @@
         <v>45428</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
@@ -11372,10 +12101,10 @@
         <v>45429</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G21" s="16">
         <v>6</v>
@@ -11395,10 +12124,10 @@
         <v>45429</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G22" s="16">
         <v>100</v>
@@ -11418,10 +12147,10 @@
         <v>45429</v>
       </c>
       <c r="E23" s="16" t="s">
+        <v>951</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>952</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>953</v>
       </c>
       <c r="G23" s="16">
         <v>20</v>
@@ -11441,10 +12170,10 @@
         <v>45428</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>954</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>955</v>
       </c>
       <c r="G24" s="19">
         <v>125</v>
@@ -11464,10 +12193,10 @@
         <v>45420</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>956</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>957</v>
       </c>
       <c r="G25" s="19">
         <v>15</v>
@@ -11496,10 +12225,10 @@
         <v>45413</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G27" s="35">
         <v>15</v>
@@ -11519,7 +12248,7 @@
         <v>45413</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F28" s="36">
         <v>230.5</v>
@@ -11542,10 +12271,10 @@
         <v>45414</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G29" s="35">
         <v>54</v>
@@ -11565,10 +12294,10 @@
         <v>45415</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G30" s="35">
         <v>16</v>
@@ -11588,10 +12317,10 @@
         <v>45415</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G31" s="35">
         <v>6</v>
@@ -11611,7 +12340,7 @@
         <v>45416</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F32" s="36">
         <v>36434</v>
@@ -11634,10 +12363,10 @@
         <v>45416</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G33" s="35">
         <v>226</v>
@@ -11657,10 +12386,10 @@
         <v>45417</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G34" s="35">
         <v>7</v>
@@ -11680,10 +12409,10 @@
         <v>45418</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G35" s="35">
         <v>25</v>
@@ -11703,10 +12432,10 @@
         <v>45419</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G36" s="35">
         <v>7</v>
@@ -11726,10 +12455,10 @@
         <v>45420</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G37" s="35">
         <v>34</v>
@@ -11749,10 +12478,10 @@
         <v>45421</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G38" s="35">
         <v>6</v>
@@ -11772,10 +12501,10 @@
         <v>45422</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G39" s="35">
         <v>8</v>
@@ -11795,10 +12524,10 @@
         <v>45423</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G40" s="35">
         <v>9</v>
@@ -11818,7 +12547,7 @@
         <v>45424</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F41" s="36">
         <v>18384</v>
@@ -11841,10 +12570,10 @@
         <v>45425</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G42" s="35">
         <v>7</v>
@@ -11864,10 +12593,10 @@
         <v>45426</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G43" s="35">
         <v>5</v>
@@ -11887,10 +12616,10 @@
         <v>45427</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G44" s="35">
         <v>4</v>
@@ -11910,10 +12639,10 @@
         <v>45428</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G45" s="35">
         <v>3</v>
@@ -11933,10 +12662,10 @@
         <v>45429</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G46" s="35">
         <v>6</v>
@@ -11956,10 +12685,10 @@
         <v>45429</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G47" s="35">
         <v>100</v>
@@ -11979,10 +12708,10 @@
         <v>45429</v>
       </c>
       <c r="E48" s="35" t="s">
+        <v>951</v>
+      </c>
+      <c r="F48" s="36" t="s">
         <v>952</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>953</v>
       </c>
       <c r="G48" s="35">
         <v>20</v>
@@ -12002,10 +12731,10 @@
         <v>45428</v>
       </c>
       <c r="E49" s="35" t="s">
+        <v>953</v>
+      </c>
+      <c r="F49" s="36" t="s">
         <v>954</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>955</v>
       </c>
       <c r="G49" s="35">
         <v>125</v>
@@ -12025,10 +12754,10 @@
         <v>45420</v>
       </c>
       <c r="E50" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="F50" s="36" t="s">
         <v>956</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>957</v>
       </c>
       <c r="G50" s="35">
         <v>15</v>
@@ -12048,10 +12777,10 @@
         <v>45413</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G51" s="31">
         <v>15</v>
@@ -12071,10 +12800,10 @@
         <v>45413</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G52" s="31">
         <v>6</v>
@@ -12094,10 +12823,10 @@
         <v>45414</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G53" s="31">
         <v>54</v>
@@ -12117,10 +12846,10 @@
         <v>45415</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G54" s="31">
         <v>32</v>
@@ -12140,10 +12869,10 @@
         <v>45416</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G55" s="31">
         <v>8</v>
@@ -12163,10 +12892,10 @@
         <v>45417</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G56" s="31">
         <v>12</v>
@@ -12186,10 +12915,10 @@
         <v>45418</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G57" s="31">
         <v>45</v>
@@ -12209,10 +12938,10 @@
         <v>45419</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G58" s="31">
         <v>3</v>
@@ -12232,10 +12961,10 @@
         <v>45420</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G59" s="31">
         <v>27</v>
@@ -12255,10 +12984,10 @@
         <v>45421</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G60" s="31">
         <v>18</v>
@@ -12278,10 +13007,10 @@
         <v>45422</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G61" s="31">
         <v>22</v>
@@ -12301,10 +13030,10 @@
         <v>45423</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G62" s="31">
         <v>9</v>
@@ -12324,10 +13053,10 @@
         <v>45424</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G63" s="31">
         <v>37</v>
@@ -12347,10 +13076,10 @@
         <v>45425</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G64" s="31">
         <v>14</v>
@@ -12370,10 +13099,10 @@
         <v>45426</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G65" s="31">
         <v>31</v>
@@ -12393,10 +13122,10 @@
         <v>45427</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G66" s="31">
         <v>28</v>
@@ -12416,10 +13145,10 @@
         <v>45428</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G67" s="31">
         <v>7</v>
@@ -12439,10 +13168,10 @@
         <v>45429</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G68" s="31">
         <v>19</v>
@@ -12462,10 +13191,10 @@
         <v>45430</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G69" s="31">
         <v>41</v>
@@ -12485,10 +13214,10 @@
         <v>45431</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G70" s="31">
         <v>16</v>
@@ -12508,10 +13237,10 @@
         <v>45432</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G71" s="31">
         <v>23</v>
@@ -12531,10 +13260,10 @@
         <v>45433</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G72" s="31">
         <v>35</v>
@@ -12554,10 +13283,10 @@
         <v>45434</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G73" s="31">
         <v>5</v>
@@ -12577,10 +13306,10 @@
         <v>45435</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G74" s="31">
         <v>28</v>
@@ -12600,10 +13329,10 @@
         <v>45436</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G75" s="31">
         <v>14</v>
@@ -12623,10 +13352,10 @@
         <v>45437</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G76" s="31">
         <v>29</v>
@@ -12646,10 +13375,10 @@
         <v>45438</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G77" s="31">
         <v>11</v>
@@ -12669,10 +13398,10 @@
         <v>45439</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G78" s="31">
         <v>48</v>
@@ -12692,10 +13421,10 @@
         <v>45440</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G79" s="31">
         <v>9</v>
@@ -12715,10 +13444,10 @@
         <v>45441</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G80" s="31">
         <v>17</v>
@@ -12738,10 +13467,10 @@
         <v>45442</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G81" s="31">
         <v>22</v>
@@ -12761,10 +13490,10 @@
         <v>45443</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G82" s="31">
         <v>13</v>
@@ -12784,10 +13513,10 @@
         <v>45444</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G83" s="31">
         <v>26</v>
@@ -12807,10 +13536,10 @@
         <v>45445</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G84" s="31">
         <v>39</v>
@@ -12830,10 +13559,10 @@
         <v>45446</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G85" s="31">
         <v>18</v>
@@ -12853,10 +13582,10 @@
         <v>45447</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G86" s="31">
         <v>8</v>
@@ -12876,10 +13605,10 @@
         <v>45448</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G87" s="31">
         <v>31</v>
@@ -12899,10 +13628,10 @@
         <v>45449</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G88" s="31">
         <v>4</v>
@@ -12922,10 +13651,10 @@
         <v>45450</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G89" s="31">
         <v>21</v>
@@ -12945,10 +13674,10 @@
         <v>45451</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G90" s="31">
         <v>44</v>
@@ -12968,10 +13697,10 @@
         <v>45452</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G91" s="31">
         <v>12</v>
@@ -12991,10 +13720,10 @@
         <v>45453</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G92" s="31">
         <v>15</v>
@@ -13014,10 +13743,10 @@
         <v>45454</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G93" s="31">
         <v>27</v>
@@ -13037,10 +13766,10 @@
         <v>45455</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G94" s="31">
         <v>6</v>
@@ -13060,10 +13789,10 @@
         <v>45456</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G95" s="31">
         <v>24</v>
@@ -13083,10 +13812,10 @@
         <v>45457</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G96" s="31">
         <v>37</v>
@@ -13106,10 +13835,10 @@
         <v>45458</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G97" s="31">
         <v>19</v>
@@ -13129,10 +13858,10 @@
         <v>45459</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G98" s="31">
         <v>10</v>
@@ -13152,10 +13881,10 @@
         <v>45460</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G99" s="31">
         <v>29</v>
@@ -13166,7 +13895,7 @@
         <v>74</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C100" s="33">
         <v>0</v>
@@ -13175,10 +13904,10 @@
         <v>45461</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G100" s="31">
         <v>14</v>
@@ -13198,10 +13927,10 @@
         <v>45462</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G101" s="31">
         <v>32</v>
@@ -13221,10 +13950,10 @@
         <v>45463</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G102" s="31">
         <v>18</v>
@@ -13244,10 +13973,10 @@
         <v>45464</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G103" s="31">
         <v>25</v>
@@ -13267,10 +13996,10 @@
         <v>45465</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G104" s="31">
         <v>7</v>
@@ -13290,10 +14019,10 @@
         <v>45466</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G105" s="31">
         <v>41</v>
@@ -13313,10 +14042,10 @@
         <v>45467</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G106" s="31">
         <v>11</v>
@@ -13336,10 +14065,10 @@
         <v>45468</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F107" s="31" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G107" s="31">
         <v>22</v>
@@ -13359,10 +14088,10 @@
         <v>45469</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G108" s="31">
         <v>36</v>
@@ -13382,10 +14111,10 @@
         <v>45470</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G109" s="31">
         <v>17</v>
@@ -13405,10 +14134,10 @@
         <v>45471</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G110" s="31">
         <v>9</v>
@@ -13428,10 +14157,10 @@
         <v>45472</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G111" s="31">
         <v>28</v>
@@ -13451,10 +14180,10 @@
         <v>45473</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G112" s="31">
         <v>13</v>
@@ -13474,10 +14203,10 @@
         <v>45474</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G113" s="31">
         <v>19</v>
@@ -13497,10 +14226,10 @@
         <v>45475</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G114" s="31">
         <v>33</v>
@@ -13520,10 +14249,10 @@
         <v>45476</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G115" s="31">
         <v>21</v>
@@ -13543,10 +14272,10 @@
         <v>45477</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G116" s="31">
         <v>14</v>
@@ -13566,10 +14295,10 @@
         <v>45478</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G117" s="31">
         <v>39</v>
@@ -13589,10 +14318,10 @@
         <v>45479</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G118" s="31">
         <v>5</v>
@@ -13612,10 +14341,10 @@
         <v>45480</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G119" s="31">
         <v>16</v>
@@ -13635,10 +14364,10 @@
         <v>45481</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G120" s="31">
         <v>42</v>
@@ -13658,10 +14387,10 @@
         <v>45482</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G121" s="31">
         <v>10</v>
@@ -13681,10 +14410,10 @@
         <v>45483</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G122" s="31">
         <v>23</v>
@@ -13704,10 +14433,10 @@
         <v>45484</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G123" s="31">
         <v>31</v>
@@ -13727,10 +14456,10 @@
         <v>45485</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G124" s="31">
         <v>26</v>
@@ -13750,10 +14479,10 @@
         <v>45486</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G125" s="31">
         <v>12</v>
@@ -13773,10 +14502,10 @@
         <v>45487</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G126" s="31">
         <v>47</v>
@@ -13796,10 +14525,10 @@
         <v>45488</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G127" s="31">
         <v>8</v>
@@ -13819,10 +14548,10 @@
         <v>45489</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G128" s="31">
         <v>20</v>
@@ -13842,10 +14571,10 @@
         <v>45490</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G129" s="31">
         <v>24</v>
@@ -13865,10 +14594,10 @@
         <v>45491</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G130" s="31">
         <v>15</v>
@@ -13888,10 +14617,10 @@
         <v>45492</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G131" s="31">
         <v>6</v>
@@ -13911,10 +14640,10 @@
         <v>45493</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G132" s="31">
         <v>35</v>
@@ -13934,10 +14663,10 @@
         <v>45494</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G133" s="31">
         <v>19</v>
@@ -13957,10 +14686,10 @@
         <v>45495</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G134" s="31">
         <v>27</v>
@@ -13980,10 +14709,10 @@
         <v>45496</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G135" s="31">
         <v>22</v>
@@ -14003,10 +14732,10 @@
         <v>45497</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G136" s="31">
         <v>11</v>
@@ -14026,10 +14755,10 @@
         <v>45498</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G137" s="31">
         <v>18</v>
@@ -14049,10 +14778,10 @@
         <v>45499</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G138" s="31">
         <v>40</v>
@@ -14072,10 +14801,10 @@
         <v>45500</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G139" s="31">
         <v>16</v>
@@ -14095,10 +14824,10 @@
         <v>45501</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G140" s="31">
         <v>13</v>
@@ -14118,10 +14847,10 @@
         <v>45502</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G141" s="31">
         <v>29</v>
@@ -14141,10 +14870,10 @@
         <v>45503</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G142" s="31">
         <v>7</v>
@@ -14164,10 +14893,10 @@
         <v>45504</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G143" s="31">
         <v>25</v>
@@ -14187,10 +14916,10 @@
         <v>45505</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G144" s="31">
         <v>32</v>
@@ -14210,10 +14939,10 @@
         <v>45506</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G145" s="31">
         <v>21</v>
@@ -14233,10 +14962,10 @@
         <v>45507</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G146" s="31">
         <v>10</v>
@@ -14256,10 +14985,10 @@
         <v>45508</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G147" s="31">
         <v>38</v>
@@ -14279,10 +15008,10 @@
         <v>45509</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G148" s="31">
         <v>14</v>
@@ -14302,10 +15031,10 @@
         <v>45510</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G149" s="31">
         <v>17</v>
@@ -14325,10 +15054,10 @@
         <v>45511</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G150" s="31">
         <v>26</v>
@@ -14348,10 +15077,10 @@
         <v>45512</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G151" s="31">
         <v>23</v>
@@ -14371,10 +15100,10 @@
         <v>45513</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G152" s="31">
         <v>8</v>
@@ -14394,10 +15123,10 @@
         <v>45514</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G153" s="31">
         <v>44</v>
@@ -14408,7 +15137,7 @@
         <v>128</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C154" s="33">
         <v>0</v>
@@ -14417,10 +15146,10 @@
         <v>45515</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G154" s="31">
         <v>9</v>
@@ -14440,10 +15169,10 @@
         <v>45516</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G155" s="31">
         <v>28</v>
@@ -14463,10 +15192,10 @@
         <v>45517</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G156" s="31">
         <v>30</v>
@@ -14486,10 +15215,10 @@
         <v>45518</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G157" s="31">
         <v>18</v>
@@ -14509,10 +15238,10 @@
         <v>45519</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G158" s="31">
         <v>15</v>
@@ -14532,10 +15261,10 @@
         <v>45520</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G159" s="31">
         <v>49</v>
@@ -14555,10 +15284,10 @@
         <v>45521</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G160" s="31">
         <v>12</v>
@@ -14578,10 +15307,10 @@
         <v>45522</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F161" s="31" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G161" s="31">
         <v>7</v>
@@ -14601,10 +15330,10 @@
         <v>45523</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F162" s="31" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G162" s="31">
         <v>27</v>
@@ -14624,10 +15353,10 @@
         <v>45524</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F163" s="31" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G163" s="31">
         <v>20</v>
@@ -14647,10 +15376,10 @@
         <v>45525</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F164" s="31" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G164" s="31">
         <v>21</v>
@@ -14670,10 +15399,10 @@
         <v>45526</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F165" s="31" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G165" s="31">
         <v>34</v>
@@ -14693,10 +15422,10 @@
         <v>45527</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G166" s="31">
         <v>13</v>
@@ -14716,10 +15445,10 @@
         <v>45528</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G167" s="31">
         <v>16</v>
@@ -14739,10 +15468,10 @@
         <v>45529</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F168" s="31" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G168" s="31">
         <v>31</v>
@@ -14762,10 +15491,10 @@
         <v>45530</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F169" s="31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G169" s="31">
         <v>24</v>
@@ -14785,10 +15514,10 @@
         <v>45531</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F170" s="31" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G170" s="31">
         <v>11</v>
@@ -14808,10 +15537,10 @@
         <v>45532</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F171" s="31" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G171" s="31">
         <v>42</v>
@@ -14831,10 +15560,10 @@
         <v>45533</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F172" s="31" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G172" s="31">
         <v>10</v>
@@ -14854,10 +15583,10 @@
         <v>45534</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F173" s="31" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G173" s="31">
         <v>19</v>
@@ -14877,10 +15606,10 @@
         <v>45535</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F174" s="31" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G174" s="31">
         <v>28</v>
@@ -14900,10 +15629,10 @@
         <v>45536</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F175" s="31" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G175" s="31">
         <v>17</v>
@@ -14923,10 +15652,10 @@
         <v>45537</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F176" s="31" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G176" s="31">
         <v>22</v>
@@ -14946,10 +15675,10 @@
         <v>45538</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F177" s="31" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G177" s="31">
         <v>25</v>
@@ -14969,10 +15698,10 @@
         <v>45728</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F178" s="31" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G178" s="31">
         <v>42</v>
@@ -14992,10 +15721,10 @@
         <v>45784</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F179" s="31" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G179" s="31">
         <v>17</v>
@@ -15015,10 +15744,10 @@
         <v>45702</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F180" s="31" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G180" s="31">
         <v>73</v>
@@ -15038,10 +15767,10 @@
         <v>45686</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F181" s="31" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G181" s="31">
         <v>28</v>
@@ -15061,10 +15790,10 @@
         <v>45769</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F182" s="31" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G182" s="31">
         <v>55</v>
@@ -15084,10 +15813,10 @@
         <v>45733</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F183" s="31" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G183" s="31">
         <v>89</v>
@@ -15107,10 +15836,10 @@
         <v>45813</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F184" s="31" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G184" s="31">
         <v>14</v>
@@ -15130,10 +15859,10 @@
         <v>45637</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F185" s="31" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G185" s="31">
         <v>33</v>
@@ -15153,10 +15882,10 @@
         <v>45796</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F186" s="31" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G186" s="31">
         <v>61</v>
@@ -15176,10 +15905,10 @@
         <v>45750</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F187" s="31" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G187" s="31">
         <v>47</v>
@@ -15199,10 +15928,10 @@
         <v>45716</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F188" s="31" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G188" s="31">
         <v>22</v>
@@ -15222,10 +15951,10 @@
         <v>45802</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F189" s="31" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G189" s="31">
         <v>8</v>
@@ -15245,10 +15974,10 @@
         <v>45666</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F190" s="31" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G190" s="31">
         <v>76</v>
@@ -15268,10 +15997,10 @@
         <v>45746</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F191" s="31" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G191" s="31">
         <v>39</v>
@@ -15291,10 +16020,10 @@
         <v>45760</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F192" s="31" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G192" s="31">
         <v>84</v>
@@ -15314,10 +16043,10 @@
         <v>45695</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F193" s="31" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G193" s="31">
         <v>51</v>
@@ -15337,10 +16066,10 @@
         <v>45467</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F194" s="31" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G194" s="31">
         <v>19</v>
@@ -15360,10 +16089,10 @@
         <v>45795</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F195" s="31" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G195" s="31">
         <v>67</v>
@@ -15383,10 +16112,10 @@
         <v>45628</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F196" s="31" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G196" s="31">
         <v>45</v>
@@ -15406,10 +16135,10 @@
         <v>45731</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F197" s="31" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G197" s="31">
         <v>92</v>
@@ -15429,10 +16158,10 @@
         <v>45684</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F198" s="31" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G198" s="31">
         <v>26</v>
@@ -15452,10 +16181,10 @@
         <v>45755</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F199" s="31" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G199" s="31">
         <v>58</v>
@@ -15475,10 +16204,10 @@
         <v>45617</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F200" s="31" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G200" s="31">
         <v>31</v>
@@ -15498,10 +16227,10 @@
         <v>45783</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F201" s="31" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G201" s="31">
         <v>74</v>
@@ -15521,10 +16250,10 @@
         <v>45745</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F202" s="31" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G202" s="31">
         <v>12</v>
@@ -15544,10 +16273,10 @@
         <v>45791</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F203" s="31" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G203" s="31">
         <v>63</v>
@@ -15567,10 +16296,10 @@
         <v>45661</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F204" s="31" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G204" s="31">
         <v>37</v>
@@ -15590,10 +16319,10 @@
         <v>45711</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F205" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G205" s="31">
         <v>81</v>
@@ -15613,10 +16342,10 @@
         <v>45460</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F206" s="31" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G206" s="31">
         <v>24</v>
@@ -15636,10 +16365,10 @@
         <v>45575</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F207" s="31" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G207" s="31">
         <v>69</v>
@@ -15659,10 +16388,10 @@
         <v>45536</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F208" s="31" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G208" s="31">
         <v>41</v>
@@ -15682,10 +16411,10 @@
         <v>45773</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F209" s="31" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G209" s="31">
         <v>16</v>
@@ -15705,10 +16434,10 @@
         <v>45735</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F210" s="31" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G210" s="31">
         <v>53</v>
@@ -15728,10 +16457,10 @@
         <v>45789</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F211" s="31" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G211" s="31">
         <v>88</v>
@@ -15751,10 +16480,10 @@
         <v>45601</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F212" s="31" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G212" s="31">
         <v>29</v>
@@ -15774,10 +16503,10 @@
         <v>45716</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F213" s="31" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G213" s="31">
         <v>65</v>
@@ -15797,10 +16526,10 @@
         <v>45672</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F214" s="31" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G214" s="31">
         <v>78</v>
@@ -15820,10 +16549,10 @@
         <v>45756</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F215" s="31" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G215" s="31">
         <v>43</v>
@@ -15843,10 +16572,10 @@
         <v>45738</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F216" s="31" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G216" s="31">
         <v>21</v>
@@ -15866,10 +16595,10 @@
         <v>45456</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F217" s="31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G217" s="31">
         <v>59</v>
@@ -15889,10 +16618,10 @@
         <v>45807</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F218" s="31" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G218" s="31">
         <v>35</v>
@@ -15912,10 +16641,10 @@
         <v>45771</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F219" s="31" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G219" s="31">
         <v>48</v>
@@ -15935,10 +16664,10 @@
         <v>45633</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F220" s="31" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G220" s="31">
         <v>82</v>
@@ -15958,10 +16687,10 @@
         <v>45677</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F221" s="31" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G221" s="31">
         <v>13</v>
@@ -15981,10 +16710,10 @@
         <v>45706</v>
       </c>
       <c r="E222" s="31" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F222" s="31" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G222" s="31">
         <v>72</v>
@@ -16004,10 +16733,10 @@
         <v>45727</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F223" s="31" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G223" s="31">
         <v>27</v>
@@ -16027,10 +16756,10 @@
         <v>45781</v>
       </c>
       <c r="E224" s="31" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F224" s="31" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G224" s="31">
         <v>64</v>
@@ -16050,10 +16779,10 @@
         <v>45774</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F225" s="31" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G225" s="31">
         <v>38</v>
@@ -16073,10 +16802,10 @@
         <v>45457</v>
       </c>
       <c r="E226" s="31" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F226" s="31" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G226" s="31">
         <v>52</v>
@@ -16096,10 +16825,10 @@
         <v>45544</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F227" s="31" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G227" s="31">
         <v>86</v>
@@ -16119,10 +16848,10 @@
         <v>45690</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F228" s="31" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G228" s="31">
         <v>23</v>
@@ -16142,10 +16871,10 @@
         <v>45741</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F229" s="31" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G229" s="31">
         <v>57</v>
@@ -16165,10 +16894,10 @@
         <v>45765</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F230" s="31" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G230" s="31">
         <v>44</v>
@@ -16188,10 +16917,10 @@
         <v>45788</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F231" s="31" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G231" s="31">
         <v>79</v>
@@ -16211,10 +16940,10 @@
         <v>45570</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F232" s="31" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G232" s="31">
         <v>31</v>
@@ -16234,10 +16963,10 @@
         <v>45685</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F233" s="31" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G233" s="31">
         <v>66</v>
@@ -16257,10 +16986,10 @@
         <v>45798</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F234" s="31" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G234" s="31">
         <v>18</v>
@@ -16280,10 +17009,10 @@
         <v>45640</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F235" s="31" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G235" s="31">
         <v>54</v>
@@ -16303,10 +17032,10 @@
         <v>45723</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F236" s="31" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G236" s="31">
         <v>87</v>
@@ -16326,10 +17055,10 @@
         <v>45777</v>
       </c>
       <c r="E237" s="31" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F237" s="31" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G237" s="31">
         <v>32</v>
@@ -16349,10 +17078,10 @@
         <v>45711</v>
       </c>
       <c r="E238" s="31" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F238" s="31" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G238" s="31">
         <v>71</v>
@@ -16363,7 +17092,7 @@
         <v>213</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C239" s="31">
         <v>8</v>
@@ -16372,10 +17101,10 @@
         <v>45793</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F239" s="31" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G239" s="31">
         <v>25</v>
@@ -16395,10 +17124,10 @@
         <v>45452</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F240" s="31" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G240" s="31">
         <v>49</v>
@@ -16418,10 +17147,10 @@
         <v>45537</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F241" s="31" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G241" s="31">
         <v>83</v>
@@ -16441,10 +17170,10 @@
         <v>45772</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F242" s="31" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G242" s="31">
         <v>36</v>
@@ -16464,10 +17193,10 @@
         <v>45734</v>
       </c>
       <c r="E243" s="31" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F243" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G243" s="31">
         <v>68</v>
@@ -16487,10 +17216,10 @@
         <v>45607</v>
       </c>
       <c r="E244" s="31" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F244" s="31" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G244" s="31">
         <v>15</v>
@@ -16510,10 +17239,10 @@
         <v>45692</v>
       </c>
       <c r="E245" s="31" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F245" s="31" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G245" s="31">
         <v>58</v>
@@ -16533,10 +17262,10 @@
         <v>45804</v>
       </c>
       <c r="E246" s="31" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F246" s="31" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G246" s="31">
         <v>41</v>
@@ -16556,10 +17285,10 @@
         <v>45677</v>
       </c>
       <c r="E247" s="31" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F247" s="31" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G247" s="31">
         <v>73</v>
@@ -16579,10 +17308,10 @@
         <v>45760</v>
       </c>
       <c r="E248" s="31" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F248" s="31" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G248" s="31">
         <v>26</v>
@@ -16602,10 +17331,10 @@
         <v>45632</v>
       </c>
       <c r="E249" s="31" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F249" s="31" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G249" s="31">
         <v>62</v>
@@ -16625,10 +17354,10 @@
         <v>45745</v>
       </c>
       <c r="E250" s="31" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F250" s="31" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G250" s="31">
         <v>17</v>
@@ -16648,10 +17377,10 @@
         <v>45799</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F251" s="31" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G251" s="31">
         <v>84</v>
@@ -16671,10 +17400,10 @@
         <v>45703</v>
       </c>
       <c r="E252" s="31" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F252" s="31" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G252" s="31">
         <v>39</v>
@@ -16694,10 +17423,10 @@
         <v>45755</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F253" s="31" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G253" s="31">
         <v>55</v>
@@ -16717,10 +17446,10 @@
         <v>45658</v>
       </c>
       <c r="E254" s="31" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F254" s="31" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G254" s="31">
         <v>91</v>
@@ -16740,10 +17469,10 @@
         <v>45467</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F255" s="31" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G255" s="31">
         <v>22</v>
@@ -16763,10 +17492,10 @@
         <v>45794</v>
       </c>
       <c r="E256" s="31" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F256" s="31" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G256" s="31">
         <v>47</v>
@@ -16786,10 +17515,10 @@
         <v>45726</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F257" s="31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G257" s="31">
         <v>34</v>
@@ -16809,10 +17538,10 @@
         <v>45507</v>
       </c>
       <c r="E258" s="31" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F258" s="31" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G258" s="31">
         <v>77</v>
@@ -16832,10 +17561,10 @@
         <v>45773</v>
       </c>
       <c r="E259" s="31" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F259" s="31" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G259" s="31">
         <v>28</v>
@@ -16855,10 +17584,10 @@
         <v>45676</v>
       </c>
       <c r="E260" s="31" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F260" s="31" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G260" s="31">
         <v>63</v>
@@ -16878,10 +17607,10 @@
         <v>45789</v>
       </c>
       <c r="E261" s="31" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F261" s="31" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G261" s="31">
         <v>19</v>
@@ -16901,10 +17630,10 @@
         <v>45570</v>
       </c>
       <c r="E262" s="31" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F262" s="31" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G262" s="31">
         <v>53</v>
@@ -16924,10 +17653,10 @@
         <v>45716</v>
       </c>
       <c r="E263" s="31" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F263" s="31" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G263" s="31">
         <v>88</v>
@@ -16947,10 +17676,10 @@
         <v>45737</v>
       </c>
       <c r="E264" s="31" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F264" s="31" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G264" s="31">
         <v>44</v>
@@ -16970,10 +17699,10 @@
         <v>45761</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F265" s="31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G265" s="31">
         <v>69</v>
@@ -16993,10 +17722,10 @@
         <v>45784</v>
       </c>
       <c r="E266" s="31" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F266" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G266" s="31">
         <v>36</v>
@@ -17016,10 +17745,10 @@
         <v>45807</v>
       </c>
       <c r="E267" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F267" s="31" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G267" s="31">
         <v>81</v>
@@ -17039,10 +17768,10 @@
         <v>45649</v>
       </c>
       <c r="E268" s="31" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F268" s="31" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G268" s="31">
         <v>24</v>
@@ -17062,10 +17791,10 @@
         <v>45673</v>
       </c>
       <c r="E269" s="31" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F269" s="31" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G269" s="31">
         <v>57</v>
@@ -17085,10 +17814,10 @@
         <v>45725</v>
       </c>
       <c r="E270" s="31" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F270" s="31" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G270" s="31">
         <v>72</v>
@@ -17108,10 +17837,10 @@
         <v>45749</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F271" s="31" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G271" s="31">
         <v>31</v>
@@ -17131,10 +17860,10 @@
         <v>45802</v>
       </c>
       <c r="E272" s="31" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F272" s="31" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G272" s="31">
         <v>46</v>
@@ -17154,10 +17883,10 @@
         <v>45461</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F273" s="31" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G273" s="31">
         <v>82</v>
@@ -17177,10 +17906,10 @@
         <v>45607</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F274" s="31" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G274" s="31">
         <v>13</v>
@@ -17200,10 +17929,10 @@
         <v>45692</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F275" s="31" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G275" s="31">
         <v>67</v>
@@ -17223,10 +17952,10 @@
         <v>45743</v>
       </c>
       <c r="E276" s="31" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F276" s="31" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G276" s="31">
         <v>38</v>
@@ -17246,10 +17975,10 @@
         <v>45767</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F277" s="31" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G277" s="31">
         <v>75</v>
@@ -17269,10 +17998,10 @@
         <v>45790</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F278" s="31" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G278" s="31">
         <v>21</v>
@@ -17292,10 +18021,10 @@
         <v>45632</v>
       </c>
       <c r="E279" s="31" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F279" s="31" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G279" s="31">
         <v>59</v>
@@ -17315,10 +18044,10 @@
         <v>45686</v>
       </c>
       <c r="E280" s="31" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F280" s="31" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G280" s="31">
         <v>42</v>
@@ -17338,10 +18067,10 @@
         <v>45710</v>
       </c>
       <c r="E281" s="31" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F281" s="31" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G281" s="31">
         <v>86</v>
@@ -17361,10 +18090,10 @@
         <v>45731</v>
       </c>
       <c r="E282" s="31" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F282" s="31" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G282" s="31">
         <v>27</v>
@@ -17384,10 +18113,10 @@
         <v>45755</v>
       </c>
       <c r="E283" s="31" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F283" s="31" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G283" s="31">
         <v>64</v>
@@ -17407,10 +18136,10 @@
         <v>45778</v>
       </c>
       <c r="E284" s="31" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F284" s="31" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G284" s="31">
         <v>48</v>
@@ -17430,10 +18159,10 @@
         <v>45801</v>
       </c>
       <c r="E285" s="31" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F285" s="31" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G285" s="31">
         <v>33</v>
@@ -17453,10 +18182,10 @@
         <v>45460</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F286" s="31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G286" s="31">
         <v>78</v>
@@ -17476,10 +18205,10 @@
         <v>45575</v>
       </c>
       <c r="E287" s="31" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G287" s="31">
         <v>15</v>
@@ -17499,10 +18228,10 @@
         <v>45599</v>
       </c>
       <c r="E288" s="31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F288" s="31" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G288" s="31">
         <v>61</v>
@@ -17522,10 +18251,10 @@
         <v>45773</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F289" s="31" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G289" s="31">
         <v>29</v>
@@ -17545,10 +18274,10 @@
         <v>45796</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F290" s="31" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G290" s="31">
         <v>54</v>
@@ -17568,10 +18297,10 @@
         <v>45638</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F291" s="31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G291" s="31">
         <v>87</v>
@@ -17591,10 +18320,10 @@
         <v>45662</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F292" s="31" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G292" s="31">
         <v>23</v>
@@ -17614,10 +18343,10 @@
         <v>45716</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F293" s="31" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G293" s="31">
         <v>68</v>
@@ -17637,10 +18366,10 @@
         <v>45737</v>
       </c>
       <c r="E294" s="31" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F294" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G294" s="31">
         <v>41</v>
@@ -17660,10 +18389,10 @@
         <v>45761</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F295" s="31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G295" s="31">
         <v>76</v>
@@ -17683,10 +18412,10 @@
         <v>45784</v>
       </c>
       <c r="E296" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F296" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G296" s="31">
         <v>19</v>
@@ -17706,10 +18435,10 @@
         <v>45807</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F297" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G297" s="31">
         <v>52</v>
@@ -17729,10 +18458,10 @@
         <v>45466</v>
       </c>
       <c r="E298" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F298" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G298" s="31">
         <v>83</v>
@@ -17752,10 +18481,10 @@
         <v>45551</v>
       </c>
       <c r="E299" s="31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F299" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G299" s="31">
         <v>37</v>
@@ -17775,10 +18504,10 @@
         <v>45697</v>
       </c>
       <c r="E300" s="31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F300" s="31" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G300" s="31">
         <v>71</v>
@@ -17798,10 +18527,10 @@
         <v>45718</v>
       </c>
       <c r="E301" s="31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F301" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G301" s="31">
         <v>26</v>
@@ -17821,10 +18550,10 @@
         <v>45772</v>
       </c>
       <c r="E302" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F302" s="31" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G302" s="31">
         <v>58</v>
@@ -17844,10 +18573,10 @@
         <v>45795</v>
       </c>
       <c r="E303" s="31" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F303" s="31" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G303" s="31">
         <v>44</v>
@@ -17867,10 +18596,10 @@
         <v>45454</v>
       </c>
       <c r="E304" s="31" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F304" s="31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G304" s="31">
         <v>89</v>
@@ -17890,10 +18619,10 @@
         <v>45477</v>
       </c>
       <c r="E305" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F305" s="31" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G305" s="31">
         <v>31</v>
@@ -17913,10 +18642,10 @@
         <v>45684</v>
       </c>
       <c r="E306" s="31" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F306" s="31" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G306" s="31">
         <v>66</v>
@@ -17936,10 +18665,10 @@
         <v>45736</v>
       </c>
       <c r="E307" s="31" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F307" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G307" s="31">
         <v>14</v>
@@ -17959,10 +18688,10 @@
         <v>45760</v>
       </c>
       <c r="E308" s="31" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F308" s="31" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G308" s="31">
         <v>79</v>
@@ -17982,10 +18711,10 @@
         <v>45783</v>
       </c>
       <c r="E309" s="31" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F309" s="31" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G309" s="31">
         <v>35</v>
@@ -18005,10 +18734,10 @@
         <v>45806</v>
       </c>
       <c r="E310" s="31" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F310" s="31" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G310" s="31">
         <v>62</v>
@@ -18028,10 +18757,10 @@
         <v>45648</v>
       </c>
       <c r="E311" s="31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F311" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G311" s="31">
         <v>47</v>
@@ -18051,10 +18780,10 @@
         <v>45672</v>
       </c>
       <c r="E312" s="31" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F312" s="31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G312" s="31">
         <v>81</v>
@@ -18074,10 +18803,10 @@
         <v>45724</v>
       </c>
       <c r="E313" s="31" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F313" s="31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G313" s="31">
         <v>28</v>
@@ -18097,10 +18826,10 @@
         <v>45748</v>
       </c>
       <c r="E314" s="31" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F314" s="31" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G314" s="31">
         <v>53</v>
@@ -18120,10 +18849,10 @@
         <v>45801</v>
       </c>
       <c r="E315" s="31" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F315" s="31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G315" s="31">
         <v>38</v>
@@ -18143,10 +18872,10 @@
         <v>45460</v>
       </c>
       <c r="E316" s="31" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F316" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G316" s="31">
         <v>72</v>
@@ -18166,10 +18895,10 @@
         <v>45575</v>
       </c>
       <c r="E317" s="31" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F317" s="31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G317" s="31">
         <v>16</v>
@@ -18189,10 +18918,10 @@
         <v>45599</v>
       </c>
       <c r="E318" s="31" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F318" s="31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G318" s="31">
         <v>59</v>
@@ -18212,10 +18941,10 @@
         <v>45773</v>
       </c>
       <c r="E319" s="31" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F319" s="31" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G319" s="31">
         <v>43</v>
@@ -18235,10 +18964,10 @@
         <v>45796</v>
       </c>
       <c r="E320" s="31" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F320" s="31" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G320" s="31">
         <v>77</v>
@@ -18258,10 +18987,10 @@
         <v>45455</v>
       </c>
       <c r="E321" s="31" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F321" s="31" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G321" s="31">
         <v>24</v>
@@ -18272,7 +19001,7 @@
         <v>296</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C322" s="31">
         <v>5</v>
@@ -18281,10 +19010,10 @@
         <v>45662</v>
       </c>
       <c r="E322" s="31" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F322" s="31" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G322" s="31">
         <v>69</v>
@@ -18304,10 +19033,10 @@
         <v>45716</v>
       </c>
       <c r="E323" s="31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F323" s="31" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G323" s="31">
         <v>32</v>
@@ -18327,10 +19056,10 @@
         <v>45737</v>
       </c>
       <c r="E324" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F324" s="31" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G324" s="31">
         <v>86</v>
@@ -18350,10 +19079,10 @@
         <v>45761</v>
       </c>
       <c r="E325" s="31" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F325" s="31" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G325" s="31">
         <v>39</v>
@@ -18373,10 +19102,10 @@
         <v>45784</v>
       </c>
       <c r="E326" s="31" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F326" s="31" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G326" s="31">
         <v>54</v>
@@ -18396,10 +19125,10 @@
         <v>45807</v>
       </c>
       <c r="E327" s="31" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F327" s="31" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G327" s="31">
         <v>21</v>
@@ -18419,10 +19148,10 @@
         <v>45649</v>
       </c>
       <c r="E328" s="31" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F328" s="31" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G328" s="31">
         <v>64</v>
@@ -18442,10 +19171,10 @@
         <v>45704</v>
       </c>
       <c r="E329" s="31" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F329" s="31" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G329" s="31">
         <v>49</v>
@@ -18465,10 +19194,10 @@
         <v>45725</v>
       </c>
       <c r="E330" s="31" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F330" s="31" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G330" s="31">
         <v>74</v>
@@ -18488,10 +19217,10 @@
         <v>45749</v>
       </c>
       <c r="E331" s="31" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F331" s="31" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G331" s="31">
         <v>17</v>
@@ -18511,10 +19240,10 @@
         <v>45802</v>
       </c>
       <c r="E332" s="31" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F332" s="31" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G332" s="31">
         <v>82</v>
@@ -18534,10 +19263,10 @@
         <v>45461</v>
       </c>
       <c r="E333" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F333" s="31" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G333" s="31">
         <v>36</v>
@@ -18557,10 +19286,10 @@
         <v>45546</v>
       </c>
       <c r="E334" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F334" s="31" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G334" s="31">
         <v>61</v>
@@ -18580,10 +19309,10 @@
         <v>45569</v>
       </c>
       <c r="E335" s="31" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F335" s="31" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G335" s="31">
         <v>46</v>
@@ -18603,10 +19332,10 @@
         <v>45774</v>
       </c>
       <c r="E336" s="31" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F336" s="31" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G336" s="31">
         <v>31</v>
@@ -18626,10 +19355,10 @@
         <v>45797</v>
       </c>
       <c r="E337" s="31" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F337" s="31" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G337" s="31">
         <v>67</v>
@@ -18649,10 +19378,10 @@
         <v>45456</v>
       </c>
       <c r="E338" s="31" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F338" s="31" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G338" s="31">
         <v>52</v>
@@ -18672,10 +19401,10 @@
         <v>45663</v>
       </c>
       <c r="E339" s="31" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F339" s="31" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G339" s="31">
         <v>87</v>
@@ -18695,10 +19424,10 @@
         <v>45745</v>
       </c>
       <c r="E340" s="31" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F340" s="31" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G340" s="31">
         <v>23</v>
@@ -18718,10 +19447,10 @@
         <v>45769</v>
       </c>
       <c r="E341" s="31" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F341" s="31" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G341" s="31">
         <v>58</v>
@@ -18741,10 +19470,10 @@
         <v>45792</v>
       </c>
       <c r="E342" s="31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F342" s="31" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G342" s="31">
         <v>42</v>
@@ -18764,10 +19493,10 @@
         <v>45451</v>
       </c>
       <c r="E343" s="31" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F343" s="31" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G343" s="31">
         <v>76</v>
@@ -18787,10 +19516,10 @@
         <v>45474</v>
       </c>
       <c r="E344" s="31" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F344" s="31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G344" s="31">
         <v>11</v>
@@ -18810,10 +19539,10 @@
         <v>45712</v>
       </c>
       <c r="E345" s="31" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F345" s="31" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G345" s="31">
         <v>63</v>
@@ -18833,10 +19562,10 @@
         <v>45733</v>
       </c>
       <c r="E346" s="31" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F346" s="31" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G346" s="31">
         <v>28</v>
@@ -18856,10 +19585,10 @@
         <v>45757</v>
       </c>
       <c r="E347" s="31" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F347" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G347" s="31">
         <v>73</v>
@@ -18879,10 +19608,10 @@
         <v>45780</v>
       </c>
       <c r="E348" s="31" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F348" s="31" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G348" s="31">
         <v>34</v>
@@ -18902,10 +19631,10 @@
         <v>45803</v>
       </c>
       <c r="E349" s="31" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F349" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G349" s="31">
         <v>79</v>
@@ -18925,10 +19654,10 @@
         <v>45462</v>
       </c>
       <c r="E350" s="31" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F350" s="31" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G350" s="31">
         <v>47</v>
@@ -18948,10 +19677,10 @@
         <v>45577</v>
       </c>
       <c r="E351" s="31" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F351" s="31" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G351" s="31">
         <v>22</v>
@@ -18971,10 +19700,10 @@
         <v>45601</v>
       </c>
       <c r="E352" s="31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F352" s="31" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G352" s="31">
         <v>65</v>
@@ -18994,10 +19723,10 @@
         <v>45775</v>
       </c>
       <c r="E353" s="31" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F353" s="31" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G353" s="31">
         <v>39</v>
@@ -19017,10 +19746,10 @@
         <v>45798</v>
       </c>
       <c r="E354" s="31" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F354" s="31" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G354" s="31">
         <v>84</v>
@@ -19040,10 +19769,10 @@
         <v>45457</v>
       </c>
       <c r="E355" s="31" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F355" s="31" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G355" s="31">
         <v>18</v>
@@ -19063,10 +19792,10 @@
         <v>45664</v>
       </c>
       <c r="E356" s="31" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F356" s="31" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G356" s="31">
         <v>53</v>
@@ -19086,10 +19815,10 @@
         <v>45746</v>
       </c>
       <c r="E357" s="31" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F357" s="31" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G357" s="31">
         <v>68</v>
@@ -19109,10 +19838,10 @@
         <v>45770</v>
       </c>
       <c r="E358" s="31" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F358" s="31" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G358" s="31">
         <v>43</v>
@@ -19132,10 +19861,10 @@
         <v>45793</v>
       </c>
       <c r="E359" s="31" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F359" s="31" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G359" s="31">
         <v>88</v>
@@ -19155,10 +19884,10 @@
         <v>45452</v>
       </c>
       <c r="E360" s="31" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F360" s="31" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G360" s="31">
         <v>27</v>
@@ -19178,10 +19907,10 @@
         <v>45475</v>
       </c>
       <c r="E361" s="31" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F361" s="31" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G361" s="31">
         <v>72</v>
@@ -19201,10 +19930,10 @@
         <v>45682</v>
       </c>
       <c r="E362" s="31" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F362" s="31" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G362" s="31">
         <v>14</v>
@@ -19224,10 +19953,10 @@
         <v>45734</v>
       </c>
       <c r="E363" s="31" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F363" s="31" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G363" s="31">
         <v>59</v>
@@ -19247,10 +19976,10 @@
         <v>45758</v>
       </c>
       <c r="E364" s="31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F364" s="31" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G364" s="31">
         <v>34</v>
@@ -19270,10 +19999,10 @@
         <v>45781</v>
       </c>
       <c r="E365" s="31" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F365" s="31" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G365" s="31">
         <v>78</v>
@@ -19293,10 +20022,10 @@
         <v>45804</v>
       </c>
       <c r="E366" s="31" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F366" s="31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G366" s="31">
         <v>29</v>
@@ -19316,10 +20045,10 @@
         <v>45463</v>
       </c>
       <c r="E367" s="31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F367" s="31" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G367" s="31">
         <v>64</v>
@@ -19339,10 +20068,10 @@
         <v>45548</v>
       </c>
       <c r="E368" s="31" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F368" s="31" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G368" s="31">
         <v>49</v>
@@ -19362,10 +20091,10 @@
         <v>45694</v>
       </c>
       <c r="E369" s="31" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F369" s="31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G369" s="31">
         <v>83</v>
@@ -19385,10 +20114,10 @@
         <v>45776</v>
       </c>
       <c r="E370" s="31" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F370" s="31" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G370" s="31">
         <v>38</v>
